--- a/dmsan/biogenic_refinery/scores/China/sys_uncertainties.xlsx
+++ b/dmsan/biogenic_refinery/scores/China/sys_uncertainties.xlsx
@@ -26485,7 +26485,7 @@
         <v>-0.122383730572103</v>
       </c>
       <c r="I11" t="n">
-        <v>17.81242247706251</v>
+        <v>17.81242247706252</v>
       </c>
     </row>
     <row r="12">
@@ -26543,7 +26543,7 @@
         <v>-0.1783809428699897</v>
       </c>
       <c r="I13" t="n">
-        <v>15.23683901143176</v>
+        <v>15.23683901143177</v>
       </c>
     </row>
     <row r="14">
@@ -54206,7 +54206,7 @@
         <v>2.773390871394359</v>
       </c>
       <c r="I13" t="n">
-        <v>23.00980887755408</v>
+        <v>23.00980887755407</v>
       </c>
     </row>
     <row r="14">

--- a/dmsan/biogenic_refinery/scores/China/sys_uncertainties.xlsx
+++ b/dmsan/biogenic_refinery/scores/China/sys_uncertainties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sysA-param" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sysA-results" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sysB-param" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sysB-results" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysA-param" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysA-results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysB-param" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysB-results" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -941,112 +941,112 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>N prot [fraction]</t>
+          <t>Excretion N prot [fraction]</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>P prot v [fraction]</t>
+          <t>Excretion P prot v [fraction]</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>P prot a [fraction]</t>
+          <t>Excretion P prot a [fraction]</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>K cal [g K/1000 kcal]</t>
+          <t>Excretion K cal [g K/1000 kcal]</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>N exc [fraction of intake]</t>
+          <t>Excretion N exc [fraction of intake]</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>P exc [fraction of intake]</t>
+          <t>Excretion P exc [fraction of intake]</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>K exc [fraction of intake]</t>
+          <t>Excretion K exc [fraction of intake]</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>E exc [fraction of intake]</t>
+          <t>Excretion e exc [fraction of intake]</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>N ur [fraction of total]</t>
+          <t>Excretion N ur [fraction of total]</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>P ur [fraction of total]</t>
+          <t>Excretion P ur [fraction of total]</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>K ur [fraction of total]</t>
+          <t>Excretion K ur [fraction of total]</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>E fec [fraction of total]</t>
+          <t>Excretion e fec [fraction of total]</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>N ur NH3 [fraction of total N in urine]</t>
+          <t>Excretion N ur NH3 [fraction of total N in urine]</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>N fec NH3 [fraction of total N in feces]</t>
+          <t>Excretion N fec NH3 [fraction of total N in feces]</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>Ur exc [g/cap/d]</t>
+          <t>Excretion ur exc [g/cap/d]</t>
         </is>
       </c>
       <c r="Q2" s="1" t="inlineStr">
         <is>
-          <t>Fec exc [g/cap/d]</t>
+          <t>Excretion fec exc [g/cap/d]</t>
         </is>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Ur moi [fraction]</t>
+          <t>Excretion ur moi [fraction]</t>
         </is>
       </c>
       <c r="S2" s="1" t="inlineStr">
         <is>
-          <t>Fec moi [fraction]</t>
+          <t>Excretion fec moi [fraction]</t>
         </is>
       </c>
       <c r="T2" s="1" t="inlineStr">
         <is>
-          <t>Mg ur [g Mg/cap/d]</t>
+          <t>Excretion mg ur [g Mg/cap/d]</t>
         </is>
       </c>
       <c r="U2" s="1" t="inlineStr">
         <is>
-          <t>Mg fec [g Mg/cap/d]</t>
+          <t>Excretion mg fec [g Mg/cap/d]</t>
         </is>
       </c>
       <c r="V2" s="1" t="inlineStr">
         <is>
-          <t>Ca ur [g Ca/cap/d]</t>
+          <t>Excretion ca ur [g Ca/cap/d]</t>
         </is>
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>Ca fec [g Ca/cap/d]</t>
+          <t>Excretion ca fec [g Ca/cap/d]</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
@@ -1096,77 +1096,77 @@
       </c>
       <c r="AG2" s="1" t="inlineStr">
         <is>
-          <t>Toilet paper [kg/cap/hr]</t>
+          <t>Pit latrine toilet paper [kg/cap/hr]</t>
         </is>
       </c>
       <c r="AH2" s="1" t="inlineStr">
         <is>
-          <t>Flushing water [kg/cap/hr]</t>
+          <t>Pit latrine flushing water [kg/cap/hr]</t>
         </is>
       </c>
       <c r="AI2" s="1" t="inlineStr">
         <is>
-          <t>Cleansing water [kg/cap/hr]</t>
+          <t>Pit latrine cleansing water [kg/cap/hr]</t>
         </is>
       </c>
       <c r="AJ2" s="1" t="inlineStr">
         <is>
-          <t>Desiccant V [m3/cap/hr]</t>
+          <t>Pit latrine desiccant V [m3/cap/hr]</t>
         </is>
       </c>
       <c r="AK2" s="1" t="inlineStr">
         <is>
-          <t>Desiccant rho [kg/m3]</t>
+          <t>Pit latrine desiccant rho [kg/m3]</t>
         </is>
       </c>
       <c r="AL2" s="1" t="inlineStr">
         <is>
-          <t>COD max decay [fraction of oxygen demand removal]</t>
+          <t>Pit latrine COD max decay [fraction of oxygen demand removal]</t>
         </is>
       </c>
       <c r="AM2" s="1" t="inlineStr">
         <is>
-          <t>N max decay [fraction of N removal after N leaching]</t>
+          <t>Pit latrine N max decay [fraction of N removal after N leaching]</t>
         </is>
       </c>
       <c r="AN2" s="1" t="inlineStr">
         <is>
-          <t>MCF aq [fraction of anaerobic conversion of degraded COD]</t>
+          <t>Pit latrine MCF aq [fraction of anaerobic conversion of degraded COD]</t>
         </is>
       </c>
       <c r="AO2" s="1" t="inlineStr">
         <is>
-          <t>N2O EF aq [fraction of N emitted as N2O]</t>
+          <t>Pit latrine n2o EF aq [fraction of N emitted as N2O]</t>
         </is>
       </c>
       <c r="AP2" s="1" t="inlineStr">
         <is>
-          <t>Emptying period [yr]</t>
+          <t>Pit latrine emptying period [yr]</t>
         </is>
       </c>
       <c r="AQ2" s="1" t="inlineStr">
         <is>
-          <t>Sludge accum rate [L/cap/yr]</t>
+          <t>Pit latrine sludge accum rate [L/cap/yr]</t>
         </is>
       </c>
       <c r="AR2" s="1" t="inlineStr">
         <is>
-          <t>N leaching [fraction of N input]</t>
+          <t>Pit latrine N leaching [fraction of N input]</t>
         </is>
       </c>
       <c r="AS2" s="1" t="inlineStr">
         <is>
-          <t>P leaching [fraction of P input]</t>
+          <t>Pit latrine P leaching [fraction of P input]</t>
         </is>
       </c>
       <c r="AT2" s="1" t="inlineStr">
         <is>
-          <t>K leaching [fraction of K input]</t>
+          <t>Pit latrine K leaching [fraction of K input]</t>
         </is>
       </c>
       <c r="AU2" s="1" t="inlineStr">
         <is>
-          <t>N volatilization [fraction of N input]</t>
+          <t>Pit latrine N volatilization [fraction of N input]</t>
         </is>
       </c>
       <c r="AV2" s="1" t="inlineStr">
@@ -1196,837 +1196,837 @@
       </c>
       <c r="BA2" s="1" t="inlineStr">
         <is>
-          <t>Icp controller board [USD]</t>
+          <t>Control box OP icp controller board [USD]</t>
         </is>
       </c>
       <c r="BB2" s="1" t="inlineStr">
         <is>
-          <t>Icp variable frequence drives [USD]</t>
+          <t>Control box OP icp variable frequence drives [USD]</t>
         </is>
       </c>
       <c r="BC2" s="1" t="inlineStr">
         <is>
-          <t>Icp power meter [USD]</t>
+          <t>Control box OP icp power meter [USD]</t>
         </is>
       </c>
       <c r="BD2" s="1" t="inlineStr">
         <is>
-          <t>Icp line filter [USD]</t>
+          <t>Control box OP icp line filter [USD]</t>
         </is>
       </c>
       <c r="BE2" s="1" t="inlineStr">
         <is>
-          <t>Icp power meter transformer [USD]</t>
+          <t>Control box OP icp power meter transformer [USD]</t>
         </is>
       </c>
       <c r="BF2" s="1" t="inlineStr">
         <is>
-          <t>Icp touch screen [USD]</t>
+          <t>Control box OP icp touch screen [USD]</t>
         </is>
       </c>
       <c r="BG2" s="1" t="inlineStr">
         <is>
-          <t>Electrician replacecables icp [nan]</t>
+          <t>Control box OP electrician replacecables icp [nan]</t>
         </is>
       </c>
       <c r="BH2" s="1" t="inlineStr">
         <is>
-          <t>Electrician replacewires icp [nan]</t>
+          <t>Control box OP electrician replacewires icp [nan]</t>
         </is>
       </c>
       <c r="BI2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacetouchscreen icp [nan]</t>
+          <t>Control box OP service team replacetouchscreen icp [nan]</t>
         </is>
       </c>
       <c r="BJ2" s="1" t="inlineStr">
         <is>
-          <t>Facility manager configurevariable icp [nan]</t>
+          <t>Control box OP facility manager configurevariable icp [nan]</t>
         </is>
       </c>
       <c r="BK2" s="1" t="inlineStr">
         <is>
-          <t>Biomass controls replaceboard icp [nan]</t>
+          <t>Control box OP biomass controls replaceboard icp [nan]</t>
         </is>
       </c>
       <c r="BL2" s="1" t="inlineStr">
         <is>
-          <t>Biomass controls codemalfunctioning icp [nan]</t>
+          <t>Control box OP biomass controls codemalfunctioning icp [nan]</t>
         </is>
       </c>
       <c r="BM2" s="1" t="inlineStr">
         <is>
-          <t>Frequency corrective maintenance [y / occurance]</t>
+          <t>Control box OP frequency corrective maintenance [y / occurance]</t>
         </is>
       </c>
       <c r="BN2" s="1" t="inlineStr">
         <is>
-          <t>Container20ft cost [USD]</t>
+          <t>Housing biogenic refinery container20ft cost [USD]</t>
         </is>
       </c>
       <c r="BO2" s="1" t="inlineStr">
         <is>
-          <t>Container40ft cost [USD]</t>
+          <t>Housing biogenic refinery container40ft cost [USD]</t>
         </is>
       </c>
       <c r="BP2" s="1" t="inlineStr">
         <is>
-          <t>Stainless steel housing [USD per m2]</t>
+          <t>Housing biogenic refinery stainless steel housing [USD per m2]</t>
         </is>
       </c>
       <c r="BQ2" s="1" t="inlineStr">
         <is>
-          <t>Concrete cost [USD per m3]</t>
+          <t>Housing biogenic refinery concrete cost [USD per m3]</t>
         </is>
       </c>
       <c r="BR2" s="1" t="inlineStr">
         <is>
-          <t>Concrete thickness [m]</t>
+          <t>Housing biogenic refinery concrete thickness [m]</t>
         </is>
       </c>
       <c r="BS2" s="1" t="inlineStr">
         <is>
-          <t>Footprint [m2]</t>
+          <t>Housing biogenic refinery footprint [m2]</t>
         </is>
       </c>
       <c r="BT2" s="1" t="inlineStr">
         <is>
-          <t>Dewatering screw press cost [usd]</t>
+          <t>Screw press dewatering screw press cost [usd]</t>
         </is>
       </c>
       <c r="BU2" s="1" t="inlineStr">
         <is>
-          <t>Dewatering screw press steel [kg]</t>
+          <t>Screw press dewatering screw press steel [kg]</t>
         </is>
       </c>
       <c r="BV2" s="1" t="inlineStr">
         <is>
-          <t>Dewatering energy demand [kwh/kg solids]</t>
+          <t>Screw press dewatering energy demand [kwh/kg solids]</t>
         </is>
       </c>
       <c r="BW2" s="1" t="inlineStr">
         <is>
-          <t>Dewatering polymer dose [g/kg dry TS]</t>
+          <t>Screw press dewatering polymer dose [g/kg dry TS]</t>
         </is>
       </c>
       <c r="BX2" s="1" t="inlineStr">
         <is>
-          <t>Cake solids TS [fraction]</t>
+          <t>Screw press cake solids TS [fraction]</t>
         </is>
       </c>
       <c r="BY2" s="1" t="inlineStr">
         <is>
-          <t>Settled frac [fraction]</t>
+          <t>Screw press  settled frac [fraction]</t>
         </is>
       </c>
       <c r="BZ2" s="1" t="inlineStr">
         <is>
-          <t>Wwt cost [usd per m3]</t>
+          <t>Screw press wwt cost [usd per m3]</t>
         </is>
       </c>
       <c r="CA2" s="1" t="inlineStr">
         <is>
-          <t>Polymer cost [usd per kg]</t>
+          <t>Screw press polymer cost [usd per kg]</t>
         </is>
       </c>
       <c r="CB2" s="1" t="inlineStr">
         <is>
-          <t>Tau [d]</t>
+          <t>Liquid treatment bed tau [d]</t>
         </is>
       </c>
       <c r="CC2" s="1" t="inlineStr">
         <is>
-          <t>COD max decay [% of total COD]</t>
+          <t>Liquid treatment bed COD max decay [% of total COD]</t>
         </is>
       </c>
       <c r="CD2" s="1" t="inlineStr">
         <is>
-          <t>MCF decay [% anaerobic conversion of degraded COD]</t>
+          <t>Liquid treatment bed MCF decay [% anaerobic conversion of degraded COD]</t>
         </is>
       </c>
       <c r="CE2" s="1" t="inlineStr">
         <is>
-          <t>N max decay [% N removal]</t>
+          <t>Liquid treatment bed N max decay [% N removal]</t>
         </is>
       </c>
       <c r="CF2" s="1" t="inlineStr">
         <is>
-          <t>N2O EF decay [% of degraded N emitted as N2O]</t>
+          <t>Liquid treatment bed n2o EF decay [% of degraded N emitted as N2O]</t>
         </is>
       </c>
       <c r="CG2" s="1" t="inlineStr">
         <is>
-          <t>Bed H [m]</t>
+          <t>Liquid treatment bed bed H [m]</t>
         </is>
       </c>
       <c r="CH2" s="1" t="inlineStr">
         <is>
-          <t>Concrete thickness [m]</t>
+          <t>Liquid treatment bed concrete thickness [m]</t>
         </is>
       </c>
       <c r="CI2" s="1" t="inlineStr">
         <is>
-          <t>Energy required to dry sludge [MJ/kg water]</t>
+          <t>Carbonizer base energy required to dry sludge [MJ/kg water]</t>
         </is>
       </c>
       <c r="CJ2" s="1" t="inlineStr">
         <is>
-          <t>Dry feces heat of combustion [MJ/kg dry]</t>
+          <t>Carbonizer base dry feces heat of combustion [MJ/kg dry]</t>
         </is>
       </c>
       <c r="CK2" s="1" t="inlineStr">
         <is>
-          <t>Pyrolysis pot cost cb [USD]</t>
+          <t>Carbonizer base pyrolysis pot cost cb [USD]</t>
         </is>
       </c>
       <c r="CL2" s="1" t="inlineStr">
         <is>
-          <t>Char auger motor cost cb [USD]</t>
+          <t>Carbonizer base char auger motor cost cb [USD]</t>
         </is>
       </c>
       <c r="CM2" s="1" t="inlineStr">
         <is>
-          <t>Fuel auger motor cost cb [USD]</t>
+          <t>Carbonizer base fuel auger motor cost cb [USD]</t>
         </is>
       </c>
       <c r="CN2" s="1" t="inlineStr">
         <is>
-          <t>Primary air blower cost cb [USD]</t>
+          <t>Carbonizer base primary air blower cost cb [USD]</t>
         </is>
       </c>
       <c r="CO2" s="1" t="inlineStr">
         <is>
-          <t>Thermocouple cost cb pcd [USD]</t>
+          <t>Carbonizer base thermocouple cost cb pcd [USD]</t>
         </is>
       </c>
       <c r="CP2" s="1" t="inlineStr">
         <is>
-          <t>Thermistor cost cb pcd [USD]</t>
+          <t>Carbonizer base thermistor cost cb pcd [USD]</t>
         </is>
       </c>
       <c r="CQ2" s="1" t="inlineStr">
         <is>
-          <t>Forced air fan cost cb [USD]</t>
+          <t>Carbonizer base forced air fan cost cb [USD]</t>
         </is>
       </c>
       <c r="CR2" s="1" t="inlineStr">
         <is>
-          <t>Airlock motor cost cb [USD]</t>
+          <t>Carbonizer base airlock motor cost cb [USD]</t>
         </is>
       </c>
       <c r="CS2" s="1" t="inlineStr">
         <is>
-          <t>Inducer fan cost cb [USD]</t>
+          <t>Carbonizer base inducer fan cost cb [USD]</t>
         </is>
       </c>
       <c r="CT2" s="1" t="inlineStr">
         <is>
-          <t>Biochar collection box cost cb [USD]</t>
+          <t>Carbonizer base biochar collection box cost cb [USD]</t>
         </is>
       </c>
       <c r="CU2" s="1" t="inlineStr">
         <is>
-          <t>Chain guards cost cb [USD]</t>
+          <t>Carbonizer base chain guards cost cb [USD]</t>
         </is>
       </c>
       <c r="CV2" s="1" t="inlineStr">
         <is>
-          <t>Door cost cb [USD]</t>
+          <t>Carbonizer base door cost cb [USD]</t>
         </is>
       </c>
       <c r="CW2" s="1" t="inlineStr">
         <is>
-          <t>Agitator cost cb [USD]</t>
+          <t>Carbonizer base agitator cost cb [USD]</t>
         </is>
       </c>
       <c r="CX2" s="1" t="inlineStr">
         <is>
-          <t>Combusion chamber cost cb [USD]</t>
+          <t>Carbonizer base combusion chamber cost cb [USD]</t>
         </is>
       </c>
       <c r="CY2" s="1" t="inlineStr">
         <is>
-          <t>Sprayer cost cb [USD]</t>
+          <t>Carbonizer base sprayer cost cb [USD]</t>
         </is>
       </c>
       <c r="CZ2" s="1" t="inlineStr">
         <is>
-          <t>Vent cost cb [USD]</t>
+          <t>Carbonizer base vent cost cb [USD]</t>
         </is>
       </c>
       <c r="DA2" s="1" t="inlineStr">
         <is>
-          <t>SO2 emissions [mg/Nm3]</t>
+          <t>Carbonizer base so2 emissions [mg/Nm3]</t>
         </is>
       </c>
       <c r="DB2" s="1" t="inlineStr">
         <is>
-          <t>CO emissions [mg/Nm3]</t>
+          <t>Carbonizer base CO emissions [mg/Nm3]</t>
         </is>
       </c>
       <c r="DC2" s="1" t="inlineStr">
         <is>
-          <t>Hg emissions [mg/Nm3]</t>
+          <t>Carbonizer base hg emissions [mg/Nm3]</t>
         </is>
       </c>
       <c r="DD2" s="1" t="inlineStr">
         <is>
-          <t>Cd emissions [mg/Nm3]</t>
+          <t>Carbonizer base cd emissions [mg/Nm3]</t>
         </is>
       </c>
       <c r="DE2" s="1" t="inlineStr">
         <is>
-          <t>As emissions [mg/Nm3]</t>
+          <t>Carbonizer base as emissions [mg/Nm3]</t>
         </is>
       </c>
       <c r="DF2" s="1" t="inlineStr">
         <is>
-          <t>Dioxin furans emissions [ng/Nm3]</t>
+          <t>Carbonizer base dioxin furans emissions [ng/Nm3]</t>
         </is>
       </c>
       <c r="DG2" s="1" t="inlineStr">
         <is>
-          <t>Cb n2o emissions [% of total N]</t>
+          <t>Carbonizer base cb n2o emissions [% of total N]</t>
         </is>
       </c>
       <c r="DH2" s="1" t="inlineStr">
         <is>
-          <t>Steel cost [USD/kg]</t>
+          <t>Carbonizer base steel cost [USD/kg]</t>
         </is>
       </c>
       <c r="DI2" s="1" t="inlineStr">
         <is>
-          <t>Stainless steel cost [USD/kg]</t>
+          <t>Carbonizer base stainless steel cost [USD/kg]</t>
         </is>
       </c>
       <c r="DJ2" s="1" t="inlineStr">
         <is>
-          <t>Primary air blower lifetime cb [y]</t>
+          <t>Carbonizer base primary air blower lifetime cb [y]</t>
         </is>
       </c>
       <c r="DK2" s="1" t="inlineStr">
         <is>
-          <t>Thermocouple lifetime cb 2pcd [y]</t>
+          <t>Carbonizer base thermocouple lifetime cb 2pcd [y]</t>
         </is>
       </c>
       <c r="DL2" s="1" t="inlineStr">
         <is>
-          <t>Forced air fan lifetime cb [y]</t>
+          <t>Carbonizer base forced air fan lifetime cb [y]</t>
         </is>
       </c>
       <c r="DM2" s="1" t="inlineStr">
         <is>
-          <t>Airlock motor lifetime cb [y]</t>
+          <t>Carbonizer base airlock motor lifetime cb [y]</t>
         </is>
       </c>
       <c r="DN2" s="1" t="inlineStr">
         <is>
-          <t>Inducer fan lifetime cb [y]</t>
+          <t>Carbonizer base inducer fan lifetime cb [y]</t>
         </is>
       </c>
       <c r="DO2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacegasket cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacegasket cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="DP2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacedoor cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacedoor cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="DQ2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacechain cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacechain cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="DR2" s="1" t="inlineStr">
         <is>
-          <t>Service team changefirepot cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team changefirepot cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="DS2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacecharaugers cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacecharaugers cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="DT2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacecatalyst pcd [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacecatalyst pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="DU2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacebrick pcd [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacebrick pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="DV2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacefuelauger pcd [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacefuelauger pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="DW2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacewaterpump hhx [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacewaterpump hhx [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="DX2" s="1" t="inlineStr">
         <is>
-          <t>Service team purgewaterloop hhx [min / corrective maintenance]</t>
+          <t>Carbonizer base service team purgewaterloop hhx [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="DY2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacecharmotor cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacecharmotor cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="DZ2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacefuelmotor cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacefuelmotor cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EA2" s="1" t="inlineStr">
         <is>
-          <t>Service team replaceblower cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replaceblower cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EB2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacefan cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacefan cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EC2" s="1" t="inlineStr">
         <is>
-          <t>Service team replaceo2sensor pcd [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replaceo2sensor pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="ED2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacepaddleswitch cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacepaddleswitch cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EE2" s="1" t="inlineStr">
         <is>
-          <t>Service team replaceairlock cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replaceairlock cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EF2" s="1" t="inlineStr">
         <is>
-          <t>Service team greasebearing cb [min / month]</t>
+          <t>Carbonizer base service team greasebearing cb [min / month]</t>
         </is>
       </c>
       <c r="EG2" s="1" t="inlineStr">
         <is>
-          <t>Service team tighten cb [min / month]</t>
+          <t>Carbonizer base service team tighten cb [min / month]</t>
         </is>
       </c>
       <c r="EH2" s="1" t="inlineStr">
         <is>
-          <t>Service team adjustdoor cb [min / month]</t>
+          <t>Carbonizer base service team adjustdoor cb [min / month]</t>
         </is>
       </c>
       <c r="EI2" s="1" t="inlineStr">
         <is>
-          <t>Service team adjustdoor pcd [min / month]</t>
+          <t>Carbonizer base service team adjustdoor pcd [min / month]</t>
         </is>
       </c>
       <c r="EJ2" s="1" t="inlineStr">
         <is>
-          <t>Service team adjustdoor hhx [min / month]</t>
+          <t>Carbonizer base service team adjustdoor hhx [min / month]</t>
         </is>
       </c>
       <c r="EK2" s="1" t="inlineStr">
         <is>
-          <t>Frequency corrective maintenance [y / occurance]</t>
+          <t>Carbonizer base frequency corrective maintenance [y / occurance]</t>
         </is>
       </c>
       <c r="EL2" s="1" t="inlineStr">
         <is>
-          <t>Biochar calorific value [MJ/kg dry]</t>
+          <t>Carbonizer base biochar calorific value [MJ/kg dry]</t>
         </is>
       </c>
       <c r="EM2" s="1" t="inlineStr">
         <is>
-          <t>Pyrolysis temp [C]</t>
+          <t>Carbonizer base pyrolysis temp [C]</t>
         </is>
       </c>
       <c r="EN2" s="1" t="inlineStr">
         <is>
-          <t>Pyrolysis C loss [fraction of total C]</t>
+          <t>Carbonizer base pyrolysis C loss [fraction of total C]</t>
         </is>
       </c>
       <c r="EO2" s="1" t="inlineStr">
         <is>
-          <t>Pyrolysis N loss [fraction of total N]</t>
+          <t>Carbonizer base pyrolysis N loss [fraction of total N]</t>
         </is>
       </c>
       <c r="EP2" s="1" t="inlineStr">
         <is>
-          <t>Pyrolysis K loss [fraction of total K]</t>
+          <t>Carbonizer base pyrolysis K loss [fraction of total K]</t>
         </is>
       </c>
       <c r="EQ2" s="1" t="inlineStr">
         <is>
-          <t>Pyrolysis P loss [fraction of total P]</t>
+          <t>Carbonizer base pyrolysis P loss [fraction of total P]</t>
         </is>
       </c>
       <c r="ER2" s="1" t="inlineStr">
         <is>
-          <t>N to NH3 [fraction of N]</t>
+          <t>Carbonizer Base N to NH3 [fraction of N]</t>
         </is>
       </c>
       <c r="ES2" s="1" t="inlineStr">
         <is>
-          <t>N to HCNO [fraction of N]</t>
+          <t>Carbonizer base N to HCNO [fraction of N]</t>
         </is>
       </c>
       <c r="ET2" s="1" t="inlineStr">
         <is>
-          <t>HCNO to NH3 [fraction of HCNO]</t>
+          <t>Carbonizer Base HCNO to NH3 [fraction of HCNO]</t>
         </is>
       </c>
       <c r="EU2" s="1" t="inlineStr">
         <is>
-          <t>NH3 to n2o [fraction of NH3]</t>
+          <t>Carbonizer base nh3 to n2o [fraction of NH3]</t>
         </is>
       </c>
       <c r="EV2" s="1" t="inlineStr">
         <is>
-          <t>Carbon COD ratio [g C*g COD-1]</t>
+          <t>Carbonizer base carbon COD ratio [g C*g COD-1]</t>
         </is>
       </c>
       <c r="EW2" s="1" t="inlineStr">
         <is>
-          <t>O2 sensor cost pcd [USD]</t>
+          <t>Pollution control device o2 sensor cost pcd [USD]</t>
         </is>
       </c>
       <c r="EX2" s="1" t="inlineStr">
         <is>
-          <t>Thermocouple cost cb pcd [USD]</t>
+          <t>Pollution control device thermocouple cost cb pcd [USD]</t>
         </is>
       </c>
       <c r="EY2" s="1" t="inlineStr">
         <is>
-          <t>Thermistor cost cb pcd [USD]</t>
+          <t>Pollution control device thermistor cost cb pcd [USD]</t>
         </is>
       </c>
       <c r="EZ2" s="1" t="inlineStr">
         <is>
-          <t>Input auger pcd [USD]</t>
+          <t>Pollution control device input auger pcd [USD]</t>
         </is>
       </c>
       <c r="FA2" s="1" t="inlineStr">
         <is>
-          <t>Input auger motor pcd [USD]</t>
+          <t>Pollution control device input auger motor pcd [USD]</t>
         </is>
       </c>
       <c r="FB2" s="1" t="inlineStr">
         <is>
-          <t>Catylist pcd [USD]</t>
+          <t>Pollution control device catylist pcd [USD]</t>
         </is>
       </c>
       <c r="FC2" s="1" t="inlineStr">
         <is>
-          <t>Catalyst access door pcd [USD]</t>
+          <t>Pollution control device catalyst access door pcd [USD]</t>
         </is>
       </c>
       <c r="FD2" s="1" t="inlineStr">
         <is>
-          <t>Feedstock staging bin pcd [USD]</t>
+          <t>Pollution control device feedstock staging bin pcd [USD]</t>
         </is>
       </c>
       <c r="FE2" s="1" t="inlineStr">
         <is>
-          <t>Temperature limit switch pcd [USD]</t>
+          <t>Pollution control device temperature limit switch pcd [USD]</t>
         </is>
       </c>
       <c r="FF2" s="1" t="inlineStr">
         <is>
-          <t>Airlock pcd [USD]</t>
+          <t>Pollution control device airlock pcd [USD]</t>
         </is>
       </c>
       <c r="FG2" s="1" t="inlineStr">
         <is>
-          <t>Steel cost [USD/kg]</t>
+          <t>Pollution control device steel cost [USD/kg]</t>
         </is>
       </c>
       <c r="FH2" s="1" t="inlineStr">
         <is>
-          <t>Stainless steel cost [USD/kg]</t>
+          <t>Pollution control device stainless steel cost [USD/kg]</t>
         </is>
       </c>
       <c r="FI2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacecatalyst pcd [min / corrective maintenance]</t>
+          <t>Pollution control device service team replacecatalyst pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="FJ2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacebrick pcd [min / corrective maintenance]</t>
+          <t>Pollution control device service team replacebrick pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="FK2" s="1" t="inlineStr">
         <is>
-          <t>Service team replaceo2sensor pcd [min / corrective maintenance]</t>
+          <t>Pollution control device service team replaceo2sensor pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="FL2" s="1" t="inlineStr">
         <is>
-          <t>Service team adjustdoor pcd [min / month]</t>
+          <t>Pollution control device service team adjustdoor pcd [min / month]</t>
         </is>
       </c>
       <c r="FM2" s="1" t="inlineStr">
         <is>
-          <t>Thermocouple lifetime cb 2pcd [y]</t>
+          <t>Pollution control device thermocouple lifetime cb 2pcd [y]</t>
         </is>
       </c>
       <c r="FN2" s="1" t="inlineStr">
         <is>
-          <t>Frequency corrective maintenance [y / occurance]</t>
+          <t>Pollution control device frequency corrective maintenance [y / occurance]</t>
         </is>
       </c>
       <c r="FO2" s="1" t="inlineStr">
         <is>
-          <t>Catalyst temp [C]</t>
+          <t>Pollution control device catalyst temp [C]</t>
         </is>
       </c>
       <c r="FP2" s="1" t="inlineStr">
         <is>
-          <t>Orc cost [USD]</t>
+          <t>Oil heat exchanger orc cost [USD]</t>
         </is>
       </c>
       <c r="FQ2" s="1" t="inlineStr">
         <is>
-          <t>Oil pump power [kW]</t>
+          <t>Oil heat exchanger oil pump power [kW]</t>
         </is>
       </c>
       <c r="FR2" s="1" t="inlineStr">
         <is>
-          <t>Oil electrical energy generated [kW]</t>
+          <t>Oil heat exchanger oil electrical energy generated [kW]</t>
         </is>
       </c>
       <c r="FS2" s="1" t="inlineStr">
         <is>
-          <t>Oil flowrate [L/min]</t>
+          <t>Oil heat exchanger oil flowrate [L/min]</t>
         </is>
       </c>
       <c r="FT2" s="1" t="inlineStr">
         <is>
-          <t>Ohx temp [C]</t>
+          <t>Oil heat exchanger ohx temp [C]</t>
         </is>
       </c>
       <c r="FU2" s="1" t="inlineStr">
         <is>
-          <t>Oil temp in [C]</t>
+          <t>Oil heat exchanger oil temp in [C]</t>
         </is>
       </c>
       <c r="FV2" s="1" t="inlineStr">
         <is>
-          <t>Oil temp out [C]</t>
+          <t>Oil heat exchanger oil temp out [C]</t>
         </is>
       </c>
       <c r="FW2" s="1" t="inlineStr">
         <is>
-          <t>Amb temp [C]</t>
+          <t>Oil heat exchanger amb temp [C]</t>
         </is>
       </c>
       <c r="FX2" s="1" t="inlineStr">
         <is>
-          <t>Heat exchanger hydronic steel [kg]</t>
+          <t>Hydronic heat exchanger heat exchanger hydronic steel [kg]</t>
         </is>
       </c>
       <c r="FY2" s="1" t="inlineStr">
         <is>
-          <t>Heat exchanger hydronic stainless [kg]</t>
+          <t>Hydronic heat exchanger heat exchanger hydronic stainless [kg]</t>
         </is>
       </c>
       <c r="FZ2" s="1" t="inlineStr">
         <is>
-          <t>Water pump power [kW]</t>
+          <t>Hydronic heat exchanger water pump power [kW]</t>
         </is>
       </c>
       <c r="GA2" s="1" t="inlineStr">
         <is>
-          <t>Hhx inducer fan power [kW]</t>
+          <t>Hydronic heat exchanger hhx inducer fan power [kW]</t>
         </is>
       </c>
       <c r="GB2" s="1" t="inlineStr">
         <is>
-          <t>Hhx stack [USD]</t>
+          <t>Hydronic heat exchanger hhx stack [USD]</t>
         </is>
       </c>
       <c r="GC2" s="1" t="inlineStr">
         <is>
-          <t>Hhx stack thermocouple [USD]</t>
+          <t>Hydronic heat exchanger hhx stack thermocouple [USD]</t>
         </is>
       </c>
       <c r="GD2" s="1" t="inlineStr">
         <is>
-          <t>Hhx oxygen sensor [USD]</t>
+          <t>Hydronic heat exchanger hhx oxygen sensor [USD]</t>
         </is>
       </c>
       <c r="GE2" s="1" t="inlineStr">
         <is>
-          <t>Hhx inducer fan [USD]</t>
+          <t>Hydronic heat exchanger hhx inducer fan [USD]</t>
         </is>
       </c>
       <c r="GF2" s="1" t="inlineStr">
         <is>
-          <t>Hhx flow meter [USD]</t>
+          <t>Hydronic heat exchanger hhx flow meter [USD]</t>
         </is>
       </c>
       <c r="GG2" s="1" t="inlineStr">
         <is>
-          <t>Hhx pump [USD]</t>
+          <t>Hydronic heat exchanger hhx pump [USD]</t>
         </is>
       </c>
       <c r="GH2" s="1" t="inlineStr">
         <is>
-          <t>Hhx water in thermistor [USD]</t>
+          <t>Hydronic heat exchanger hhx water in thermistor [USD]</t>
         </is>
       </c>
       <c r="GI2" s="1" t="inlineStr">
         <is>
-          <t>Hhx water out thermistor [USD]</t>
+          <t>Hydronic heat exchanger hhx water out thermistor [USD]</t>
         </is>
       </c>
       <c r="GJ2" s="1" t="inlineStr">
         <is>
-          <t>Hhx load tank [USD]</t>
+          <t>Hydronic heat exchanger hhx load tank [USD]</t>
         </is>
       </c>
       <c r="GK2" s="1" t="inlineStr">
         <is>
-          <t>Hhx expansion tank [USD]</t>
+          <t>Hydronic heat exchanger hhx expansion tank [USD]</t>
         </is>
       </c>
       <c r="GL2" s="1" t="inlineStr">
         <is>
-          <t>Hhx heat exchanger [USD]</t>
+          <t>Hydronic heat exchanger hhx heat exchanger [USD]</t>
         </is>
       </c>
       <c r="GM2" s="1" t="inlineStr">
         <is>
-          <t>Hhx values [USD]</t>
+          <t>Hydronic heat exchanger hhx values [USD]</t>
         </is>
       </c>
       <c r="GN2" s="1" t="inlineStr">
         <is>
-          <t>Hhx thermal well [USD]</t>
+          <t>Hydronic heat exchanger hhx thermal well [USD]</t>
         </is>
       </c>
       <c r="GO2" s="1" t="inlineStr">
         <is>
-          <t>Hhx hot water tank [USD]</t>
+          <t>Hydronic heat exchanger hhx hot water tank [USD]</t>
         </is>
       </c>
       <c r="GP2" s="1" t="inlineStr">
         <is>
-          <t>Hhx overflow tank [USD]</t>
+          <t>Hydronic heat exchanger hhx overflow tank [USD]</t>
         </is>
       </c>
       <c r="GQ2" s="1" t="inlineStr">
         <is>
-          <t>Steel cost [USD/kg]</t>
+          <t>Hydronic heat exchanger steel cost [USD/kg]</t>
         </is>
       </c>
       <c r="GR2" s="1" t="inlineStr">
         <is>
-          <t>Stainless steel cost [USD/kg]</t>
+          <t>Hydronic heat exchanger stainless steel cost [USD/kg]</t>
         </is>
       </c>
       <c r="GS2" s="1" t="inlineStr">
         <is>
-          <t>Frequency corrective maintenance [y / occurance]</t>
+          <t>Hydronic heat exchanger frequency corrective maintenance [y / occurance]</t>
         </is>
       </c>
       <c r="GT2" s="1" t="inlineStr">
         <is>
-          <t>Service team adjustdoor hhx [min / month]</t>
+          <t>Hydronic heat exchanger service team adjustdoor hhx [min / month]</t>
         </is>
       </c>
       <c r="GU2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacewaterpump hhx [min / corrective maintenance]</t>
+          <t>Hydronic heat exchanger service team replacewaterpump hhx [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="GV2" s="1" t="inlineStr">
         <is>
-          <t>Service team purgewaterloop hhx [min / corrective maintenance]</t>
+          <t>Hydronic heat exchanger service team purgewaterloop hhx [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="GW2" s="1" t="inlineStr">
         <is>
-          <t>Hhx temp [C]</t>
+          <t>Hydronic heat exchanger hhx temp [C]</t>
         </is>
       </c>
       <c r="GX2" s="1" t="inlineStr">
         <is>
-          <t>Water flowrate [L/min]</t>
+          <t>Hydronic heat exchanger water flowrate [L/min]</t>
         </is>
       </c>
       <c r="GY2" s="1" t="inlineStr">
         <is>
-          <t>Water out temp [C]</t>
+          <t>Hydronic heat exchanger water out temp [C]</t>
         </is>
       </c>
       <c r="GZ2" s="1" t="inlineStr">
         <is>
-          <t>Water in temp [C]</t>
+          <t>Hydronic heat exchanger water in temp [C]</t>
         </is>
       </c>
       <c r="HA2" s="1" t="inlineStr">
         <is>
-          <t>Ambient temp [C]</t>
+          <t>Hydronic heat exchanger ambient temp [C]</t>
         </is>
       </c>
       <c r="HB2" s="1" t="inlineStr">
         <is>
-          <t>Drying energy demand [kW]</t>
+          <t>HHXdryer drying energy demand [kW]</t>
         </is>
       </c>
       <c r="HC2" s="1" t="inlineStr">
         <is>
-          <t>Drying co2 emissions [% of total C]</t>
+          <t>HHXdryer drying co2 emissions [% of total C]</t>
         </is>
       </c>
       <c r="HD2" s="1" t="inlineStr">
         <is>
-          <t>Drying ch4 emissions [% of total C]</t>
+          <t>HHXdryer drying ch4 emissions [% of total C]</t>
         </is>
       </c>
       <c r="HE2" s="1" t="inlineStr">
         <is>
-          <t>Drying nh3 emissions [% of total N]</t>
+          <t>HHXdryer drying nh3 emissions [% of total N]</t>
         </is>
       </c>
       <c r="HF2" s="1" t="inlineStr">
         <is>
-          <t>NH3 to n2o [% of NH3]</t>
+          <t>HHXdryer nh3 to n2o [% of NH3]</t>
         </is>
       </c>
       <c r="HG2" s="1" t="inlineStr">
         <is>
-          <t>Energy required to dry sludge [MJ/kg water]</t>
+          <t>HHXdryer energy required to dry sludge [MJ/kg water]</t>
         </is>
       </c>
       <c r="HH2" s="1" t="inlineStr">
         <is>
-          <t>Ambient temp [C]</t>
+          <t>HHXdryer ambient temp [C]</t>
         </is>
       </c>
       <c r="HI2" s="1" t="inlineStr">
         <is>
-          <t>Dryer heat transfer coeff [MJ / (h m2 K)]</t>
+          <t>HHXdryer dryer heat transfer coeff [MJ / (h m2 K)]</t>
         </is>
       </c>
       <c r="HJ2" s="1" t="inlineStr">
         <is>
-          <t>Water out temp [C]</t>
+          <t>HHXdryer water out temp [C]</t>
         </is>
       </c>
       <c r="HK2" s="1" t="inlineStr">
         <is>
-          <t>Carbon COD ratio [g C*g COD-1]</t>
+          <t>HHXdryer carbon COD ratio [g C*g COD-1]</t>
         </is>
       </c>
       <c r="HL2" s="1" t="inlineStr">
@@ -26261,28 +26261,28 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>23.74167069766705</v>
+        <v>23.74167069766704</v>
       </c>
       <c r="C4" t="n">
-        <v>57.96452680173407</v>
+        <v>57.96452680173406</v>
       </c>
       <c r="D4" t="n">
-        <v>61.49857883414285</v>
+        <v>61.49857883414283</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01720880489512364</v>
+        <v>0.01720880489512369</v>
       </c>
       <c r="G4" t="n">
         <v>16.52918358976816</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1051706820825915</v>
+        <v>0.1051706820825918</v>
       </c>
       <c r="I4" t="n">
-        <v>19.55496498881084</v>
+        <v>19.55496498950217</v>
       </c>
     </row>
     <row r="5">
@@ -26290,28 +26290,28 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>29.76660758855348</v>
+        <v>29.76660758855347</v>
       </c>
       <c r="C5" t="n">
         <v>72.86312864908456</v>
       </c>
       <c r="D5" t="n">
-        <v>65.3081450673844</v>
+        <v>65.30814506738443</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.06447705493301142</v>
+        <v>-0.06447705493301137</v>
       </c>
       <c r="G5" t="n">
         <v>10.66884720738582</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5848171355558072</v>
+        <v>-0.5848171355558069</v>
       </c>
       <c r="I5" t="n">
-        <v>14.89394317971732</v>
+        <v>14.8939431800849</v>
       </c>
     </row>
     <row r="6">
@@ -26319,28 +26319,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>21.35508955033021</v>
+        <v>21.35508955033019</v>
       </c>
       <c r="C6" t="n">
-        <v>66.2167353039459</v>
+        <v>66.21673530394587</v>
       </c>
       <c r="D6" t="n">
-        <v>59.77295440596569</v>
+        <v>59.77295440596568</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08337433667073278</v>
+        <v>0.0833743366707328</v>
       </c>
       <c r="G6" t="n">
         <v>16.75158709852103</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1568336905513174</v>
+        <v>0.1568336905513175</v>
       </c>
       <c r="I6" t="n">
-        <v>23.07048720629524</v>
+        <v>23.07048720692001</v>
       </c>
     </row>
     <row r="7">
@@ -26351,10 +26351,10 @@
         <v>20.8322473414875</v>
       </c>
       <c r="C7" t="n">
-        <v>60.60088935678461</v>
+        <v>60.60088935678463</v>
       </c>
       <c r="D7" t="n">
-        <v>71.48139564208607</v>
+        <v>71.48139564208608</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -26369,7 +26369,7 @@
         <v>-0.2815335157357594</v>
       </c>
       <c r="I7" t="n">
-        <v>13.45771516889366</v>
+        <v>13.45771516921224</v>
       </c>
     </row>
     <row r="8">
@@ -26377,28 +26377,28 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>31.31303004148509</v>
+        <v>31.3130300414851</v>
       </c>
       <c r="C8" t="n">
         <v>50.15122800590325</v>
       </c>
       <c r="D8" t="n">
-        <v>51.90967350264264</v>
+        <v>51.90967350264265</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06946492148233771</v>
+        <v>0.06946492148233772</v>
       </c>
       <c r="G8" t="n">
-        <v>4.339083140065744</v>
+        <v>4.339083140065745</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.06469657826941132</v>
+        <v>-0.06469657826941123</v>
       </c>
       <c r="I8" t="n">
-        <v>22.55262618007977</v>
+        <v>22.55262618039444</v>
       </c>
     </row>
     <row r="9">
@@ -26406,13 +26406,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>30.29717897962183</v>
+        <v>30.29717897962184</v>
       </c>
       <c r="C9" t="n">
-        <v>61.35023794145703</v>
+        <v>61.35023794145704</v>
       </c>
       <c r="D9" t="n">
-        <v>67.44790806967687</v>
+        <v>67.44790806967688</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>-0.3896616290034773</v>
       </c>
       <c r="I9" t="n">
-        <v>9.953878803977787</v>
+        <v>9.95387880441948</v>
       </c>
     </row>
     <row r="10">
@@ -26435,28 +26435,28 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>21.00418379405348</v>
+        <v>21.0041837940535</v>
       </c>
       <c r="C10" t="n">
-        <v>68.88405130336844</v>
+        <v>68.88405130336842</v>
       </c>
       <c r="D10" t="n">
-        <v>66.06107369595443</v>
+        <v>66.06107369595445</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03635068432676981</v>
+        <v>-0.03635068432676982</v>
       </c>
       <c r="G10" t="n">
-        <v>9.201927153801005</v>
+        <v>9.201927153801002</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2934962000842227</v>
+        <v>-0.2934962000842229</v>
       </c>
       <c r="I10" t="n">
-        <v>10.76958702936707</v>
+        <v>10.7695870296324</v>
       </c>
     </row>
     <row r="11">
@@ -26464,28 +26464,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>32.01657022999713</v>
+        <v>32.01657022999715</v>
       </c>
       <c r="C11" t="n">
-        <v>69.84971891797124</v>
+        <v>69.84971891797126</v>
       </c>
       <c r="D11" t="n">
-        <v>53.79193738882869</v>
+        <v>53.7919373888287</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01095124677300367</v>
+        <v>-0.01095124677300369</v>
       </c>
       <c r="G11" t="n">
         <v>10.43034222406238</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.122383730572103</v>
+        <v>-0.1223837305721031</v>
       </c>
       <c r="I11" t="n">
-        <v>17.81242247706252</v>
+        <v>17.81242247762497</v>
       </c>
     </row>
     <row r="12">
@@ -26496,7 +26496,7 @@
         <v>27.79416668535449</v>
       </c>
       <c r="C12" t="n">
-        <v>63.19075833646184</v>
+        <v>63.19075833646185</v>
       </c>
       <c r="D12" t="n">
         <v>68.22417886167995</v>
@@ -26505,7 +26505,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02227592316205545</v>
+        <v>-0.02227592316205543</v>
       </c>
       <c r="G12" t="n">
         <v>19.05965305126148</v>
@@ -26514,7 +26514,7 @@
         <v>-0.3322571995632357</v>
       </c>
       <c r="I12" t="n">
-        <v>15.88013099194193</v>
+        <v>15.88013099229581</v>
       </c>
     </row>
     <row r="13">
@@ -26528,22 +26528,22 @@
         <v>59.26173270268576</v>
       </c>
       <c r="D13" t="n">
-        <v>74.06840951617185</v>
+        <v>74.06840951617184</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03544011925728099</v>
+        <v>-0.035440119257281</v>
       </c>
       <c r="G13" t="n">
         <v>23.15091251100255</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1783809428699897</v>
+        <v>-0.1783809428699898</v>
       </c>
       <c r="I13" t="n">
-        <v>15.23683901143177</v>
+        <v>15.23683901184864</v>
       </c>
     </row>
     <row r="14">
@@ -26551,13 +26551,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>23.7675312893595</v>
+        <v>23.76753128935951</v>
       </c>
       <c r="C14" t="n">
-        <v>49.10799140455242</v>
+        <v>49.10799140455243</v>
       </c>
       <c r="D14" t="n">
-        <v>62.9255068792918</v>
+        <v>62.92550687929185</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -26572,7 +26572,7 @@
         <v>-0.143202927548161</v>
       </c>
       <c r="I14" t="n">
-        <v>10.37530632835221</v>
+        <v>10.37530632869187</v>
       </c>
     </row>
     <row r="15">
@@ -26580,19 +26580,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>27.52496548882169</v>
+        <v>27.52496548882166</v>
       </c>
       <c r="C15" t="n">
-        <v>54.94605359460976</v>
+        <v>54.94605359460974</v>
       </c>
       <c r="D15" t="n">
-        <v>56.0724133204584</v>
+        <v>56.07241332045838</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03101608433987814</v>
+        <v>-0.03101608433987811</v>
       </c>
       <c r="G15" t="n">
         <v>12.54331683383033</v>
@@ -26601,7 +26601,7 @@
         <v>-0.4716376530746123</v>
       </c>
       <c r="I15" t="n">
-        <v>14.07378496472413</v>
+        <v>14.07378496514372</v>
       </c>
     </row>
     <row r="16">
@@ -26615,7 +26615,7 @@
         <v>50.42723213113388</v>
       </c>
       <c r="D16" t="n">
-        <v>68.02380644856323</v>
+        <v>68.02380644856318</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -26630,7 +26630,7 @@
         <v>0.5500395873191998</v>
       </c>
       <c r="I16" t="n">
-        <v>25.41222055205602</v>
+        <v>25.41222055280714</v>
       </c>
     </row>
     <row r="17">
@@ -26638,13 +26638,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>14.24552871014527</v>
+        <v>14.24552871014526</v>
       </c>
       <c r="C17" t="n">
-        <v>65.08629197279954</v>
+        <v>65.08629197279951</v>
       </c>
       <c r="D17" t="n">
-        <v>53.5494750778379</v>
+        <v>53.54947507783787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26653,13 +26653,13 @@
         <v>0.04591719770809515</v>
       </c>
       <c r="G17" t="n">
-        <v>22.15273154493974</v>
+        <v>22.15273154493973</v>
       </c>
       <c r="H17" t="n">
         <v>-0.252054969109299</v>
       </c>
       <c r="I17" t="n">
-        <v>16.40208229972722</v>
+        <v>16.40208230013624</v>
       </c>
     </row>
     <row r="18">
@@ -26667,7 +26667,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>28.29338291147587</v>
+        <v>28.29338291147588</v>
       </c>
       <c r="C18" t="n">
         <v>48.10784613530858</v>
@@ -26685,10 +26685,10 @@
         <v>11.61431961428456</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9624913728862625</v>
+        <v>0.9624913728862624</v>
       </c>
       <c r="I18" t="n">
-        <v>31.6971840945872</v>
+        <v>31.69718409563823</v>
       </c>
     </row>
     <row r="19">
@@ -26699,7 +26699,7 @@
         <v>24.82685639121682</v>
       </c>
       <c r="C19" t="n">
-        <v>53.23674763716301</v>
+        <v>53.23674763716302</v>
       </c>
       <c r="D19" t="n">
         <v>68.02474537040455</v>
@@ -26717,7 +26717,7 @@
         <v>-0.2531475280861032</v>
       </c>
       <c r="I19" t="n">
-        <v>12.33691229559661</v>
+        <v>12.33691229617792</v>
       </c>
     </row>
     <row r="20">
@@ -26725,28 +26725,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>23.11699602250539</v>
+        <v>23.11699602250538</v>
       </c>
       <c r="C20" t="n">
-        <v>73.00511600893952</v>
+        <v>73.00511600893951</v>
       </c>
       <c r="D20" t="n">
-        <v>64.84937495894951</v>
+        <v>64.84937495894948</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.04227889638095103</v>
+        <v>-0.042278896380951</v>
       </c>
       <c r="G20" t="n">
         <v>11.97524594088665</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.3175209339028793</v>
+        <v>-0.3175209339028792</v>
       </c>
       <c r="I20" t="n">
-        <v>13.81285597620251</v>
+        <v>13.81285597673122</v>
       </c>
     </row>
     <row r="21">
@@ -26754,28 +26754,28 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>38.10894829533925</v>
+        <v>38.10894829533927</v>
       </c>
       <c r="C21" t="n">
         <v>53.57789026696753</v>
       </c>
       <c r="D21" t="n">
-        <v>70.8434239787579</v>
+        <v>70.84342397875791</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.06491086478317502</v>
+        <v>-0.06491086478317501</v>
       </c>
       <c r="G21" t="n">
-        <v>14.14331595036945</v>
+        <v>14.14331595036946</v>
       </c>
       <c r="H21" t="n">
         <v>-0.4753524681998996</v>
       </c>
       <c r="I21" t="n">
-        <v>11.8159590594357</v>
+        <v>11.8159590597605</v>
       </c>
     </row>
     <row r="22">
@@ -26783,7 +26783,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>35.01021210835827</v>
+        <v>35.01021210835829</v>
       </c>
       <c r="C22" t="n">
         <v>58.29212808936283</v>
@@ -26795,16 +26795,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.03172179801909364</v>
+        <v>-0.03172179801909367</v>
       </c>
       <c r="G22" t="n">
-        <v>3.709981951664522</v>
+        <v>3.709981951664523</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.3007064984057662</v>
+        <v>-0.3007064984057664</v>
       </c>
       <c r="I22" t="n">
-        <v>15.48144247429978</v>
+        <v>15.48144247471948</v>
       </c>
     </row>
     <row r="23">
@@ -26815,10 +26815,10 @@
         <v>17.59094183075903</v>
       </c>
       <c r="C23" t="n">
-        <v>64.13109516864223</v>
+        <v>64.13109516864226</v>
       </c>
       <c r="D23" t="n">
-        <v>58.53584046250192</v>
+        <v>58.53584046250193</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -26833,7 +26833,7 @@
         <v>-0.334214627511015</v>
       </c>
       <c r="I23" t="n">
-        <v>13.74464007272323</v>
+        <v>13.74464007332955</v>
       </c>
     </row>
   </sheetData>
@@ -27366,112 +27366,112 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>N prot [fraction]</t>
+          <t>Excretion N prot [fraction]</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>P prot v [fraction]</t>
+          <t>Excretion P prot v [fraction]</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>P prot a [fraction]</t>
+          <t>Excretion P prot a [fraction]</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>K cal [g K/1000 kcal]</t>
+          <t>Excretion K cal [g K/1000 kcal]</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>N exc [fraction of intake]</t>
+          <t>Excretion N exc [fraction of intake]</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>P exc [fraction of intake]</t>
+          <t>Excretion P exc [fraction of intake]</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>K exc [fraction of intake]</t>
+          <t>Excretion K exc [fraction of intake]</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>E exc [fraction of intake]</t>
+          <t>Excretion e exc [fraction of intake]</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>N ur [fraction of total]</t>
+          <t>Excretion N ur [fraction of total]</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>P ur [fraction of total]</t>
+          <t>Excretion P ur [fraction of total]</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>K ur [fraction of total]</t>
+          <t>Excretion K ur [fraction of total]</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>E fec [fraction of total]</t>
+          <t>Excretion e fec [fraction of total]</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>N ur NH3 [fraction of total N in urine]</t>
+          <t>Excretion N ur NH3 [fraction of total N in urine]</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>N fec NH3 [fraction of total N in feces]</t>
+          <t>Excretion N fec NH3 [fraction of total N in feces]</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>Ur exc [g/cap/d]</t>
+          <t>Excretion ur exc [g/cap/d]</t>
         </is>
       </c>
       <c r="Q2" s="1" t="inlineStr">
         <is>
-          <t>Fec exc [g/cap/d]</t>
+          <t>Excretion fec exc [g/cap/d]</t>
         </is>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Ur moi [fraction]</t>
+          <t>Excretion ur moi [fraction]</t>
         </is>
       </c>
       <c r="S2" s="1" t="inlineStr">
         <is>
-          <t>Fec moi [fraction]</t>
+          <t>Excretion fec moi [fraction]</t>
         </is>
       </c>
       <c r="T2" s="1" t="inlineStr">
         <is>
-          <t>Mg ur [g Mg/cap/d]</t>
+          <t>Excretion mg ur [g Mg/cap/d]</t>
         </is>
       </c>
       <c r="U2" s="1" t="inlineStr">
         <is>
-          <t>Mg fec [g Mg/cap/d]</t>
+          <t>Excretion mg fec [g Mg/cap/d]</t>
         </is>
       </c>
       <c r="V2" s="1" t="inlineStr">
         <is>
-          <t>Ca ur [g Ca/cap/d]</t>
+          <t>Excretion ca ur [g Ca/cap/d]</t>
         </is>
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>Ca fec [g Ca/cap/d]</t>
+          <t>Excretion ca fec [g Ca/cap/d]</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
@@ -27521,97 +27521,97 @@
       </c>
       <c r="AG2" s="1" t="inlineStr">
         <is>
-          <t>Toilet paper [kg/cap/hr]</t>
+          <t>UDDT toilet paper [kg/cap/hr]</t>
         </is>
       </c>
       <c r="AH2" s="1" t="inlineStr">
         <is>
-          <t>Flushing water [kg/cap/hr]</t>
+          <t>UDDT flushing water [kg/cap/hr]</t>
         </is>
       </c>
       <c r="AI2" s="1" t="inlineStr">
         <is>
-          <t>Cleansing water [kg/cap/hr]</t>
+          <t>UDDT cleansing water [kg/cap/hr]</t>
         </is>
       </c>
       <c r="AJ2" s="1" t="inlineStr">
         <is>
-          <t>Desiccant V [m3/cap/hr]</t>
+          <t>UDDT desiccant V [m3/cap/hr]</t>
         </is>
       </c>
       <c r="AK2" s="1" t="inlineStr">
         <is>
-          <t>Desiccant rho [kg/m3]</t>
+          <t>UDDT desiccant rho [kg/m3]</t>
         </is>
       </c>
       <c r="AL2" s="1" t="inlineStr">
         <is>
-          <t>COD max decay [fraction of oxygen demand removal]</t>
+          <t>UDDT COD max decay [fraction of oxygen demand removal]</t>
         </is>
       </c>
       <c r="AM2" s="1" t="inlineStr">
         <is>
-          <t>N max decay [fraction of N removal after N leaching]</t>
+          <t>UDDT N max decay [fraction of N removal after N leaching]</t>
         </is>
       </c>
       <c r="AN2" s="1" t="inlineStr">
         <is>
-          <t>MCF aq [fraction of anaerobic conversion of degraded COD]</t>
+          <t>UDDT MCF aq [fraction of anaerobic conversion of degraded COD]</t>
         </is>
       </c>
       <c r="AO2" s="1" t="inlineStr">
         <is>
-          <t>N2O EF aq [fraction of N emitted as N2O]</t>
+          <t>UDDT n2o EF aq [fraction of N emitted as N2O]</t>
         </is>
       </c>
       <c r="AP2" s="1" t="inlineStr">
         <is>
-          <t>Collection period [d]</t>
+          <t>UDDT collection period [d]</t>
         </is>
       </c>
       <c r="AQ2" s="1" t="inlineStr">
         <is>
-          <t>N volatilization [fraction of total N]</t>
+          <t>UDDT N volatilization [fraction of total N]</t>
         </is>
       </c>
       <c r="AR2" s="1" t="inlineStr">
         <is>
-          <t>Struvite p ksp [-]</t>
+          <t>UDDT struvite p ksp [-]</t>
         </is>
       </c>
       <c r="AS2" s="1" t="inlineStr">
         <is>
-          <t>Prep sludge [fraction of total precipitate appearing as sludge that settles and can be removed]</t>
+          <t>UDDT prep sludge [fraction of total precipitate appearing as sludge that settles and can be removed]</t>
         </is>
       </c>
       <c r="AT2" s="1" t="inlineStr">
         <is>
-          <t>Log removal [log unit]</t>
+          <t>UDDT log removal [log unit]</t>
         </is>
       </c>
       <c r="AU2" s="1" t="inlineStr">
         <is>
-          <t>Ur p H [pH unit]</t>
+          <t>UDDT ur p H [pH unit]</t>
         </is>
       </c>
       <c r="AV2" s="1" t="inlineStr">
         <is>
-          <t>MCF decay [fraction of anaerobic conversion of degraded COD]</t>
+          <t>UDDT MCF decay [fraction of anaerobic conversion of degraded COD]</t>
         </is>
       </c>
       <c r="AW2" s="1" t="inlineStr">
         <is>
-          <t>N2O EF decay [fraction of N emitted as N2O]</t>
+          <t>UDDT n2o EF decay [fraction of N emitted as N2O]</t>
         </is>
       </c>
       <c r="AX2" s="1" t="inlineStr">
         <is>
-          <t>Fec moi min [fraction]</t>
+          <t>UDDT fec moi min [fraction]</t>
         </is>
       </c>
       <c r="AY2" s="1" t="inlineStr">
         <is>
-          <t>Fec moi red rate [1/d]</t>
+          <t>UDDT fec moi red rate [1/d]</t>
         </is>
       </c>
       <c r="AZ2" s="1" t="inlineStr">
@@ -27626,917 +27626,917 @@
       </c>
       <c r="BB2" s="1" t="inlineStr">
         <is>
-          <t>Material P pipe [m]</t>
+          <t>Struvite precipitation material P pipe [m]</t>
         </is>
       </c>
       <c r="BC2" s="1" t="inlineStr">
         <is>
-          <t>Cost P reactor [USD]</t>
+          <t>Struvite precipitation cost P reactor [USD]</t>
         </is>
       </c>
       <c r="BD2" s="1" t="inlineStr">
         <is>
-          <t>Cost P stirrer [USD/m2]</t>
+          <t>Struvite precipitation cost P stirrer [USD/m2]</t>
         </is>
       </c>
       <c r="BE2" s="1" t="inlineStr">
         <is>
-          <t>Cost P pipe [USD/m]</t>
+          <t>Struvite precipitation cost P pipe [USD/m]</t>
         </is>
       </c>
       <c r="BF2" s="1" t="inlineStr">
         <is>
-          <t>Filter reuse [# times reused]</t>
+          <t>Struvite precipitation filter reuse [# times reused]</t>
         </is>
       </c>
       <c r="BG2" s="1" t="inlineStr">
         <is>
-          <t>Reactor weight [kg]</t>
+          <t>Struvite precipitation reactor weight [kg]</t>
         </is>
       </c>
       <c r="BH2" s="1" t="inlineStr">
         <is>
-          <t>Pvc mass [kg PVC/m]</t>
+          <t>Struvite precipitation pvc mass [kg PVC/m]</t>
         </is>
       </c>
       <c r="BI2" s="1" t="inlineStr">
         <is>
-          <t>N rec [%]</t>
+          <t>Ion exchange nh3 N rec [%]</t>
         </is>
       </c>
       <c r="BJ2" s="1" t="inlineStr">
         <is>
-          <t>Resin mass column [g per column]</t>
+          <t>Ion exchange nh3 resin mass column [g per column]</t>
         </is>
       </c>
       <c r="BK2" s="1" t="inlineStr">
         <is>
-          <t>Material tubing [m]</t>
+          <t>Ion exchange nh3 material tubing [m]</t>
         </is>
       </c>
       <c r="BL2" s="1" t="inlineStr">
         <is>
-          <t>Cost PVC column [USD/m]</t>
+          <t>Ion exchange nh3 cost PVC column [USD/m]</t>
         </is>
       </c>
       <c r="BM2" s="1" t="inlineStr">
         <is>
-          <t>Cost tubing [USD/m]</t>
+          <t>Ion exchange nh3 cost tubing [USD/m]</t>
         </is>
       </c>
       <c r="BN2" s="1" t="inlineStr">
         <is>
-          <t>Cost H2SO4 [USD/metric ton]</t>
+          <t>Ion Exchange NH3 cost H2SO4 [USD/metric ton]</t>
         </is>
       </c>
       <c r="BO2" s="1" t="inlineStr">
         <is>
-          <t>Cost resin [USD/kg]</t>
+          <t>Ion exchange nh3 cost resin [USD/kg]</t>
         </is>
       </c>
       <c r="BP2" s="1" t="inlineStr">
         <is>
-          <t>Ad density [mmol N/g resin]</t>
+          <t>Ion exchange nh3 ad density [mmol N/g resin]</t>
         </is>
       </c>
       <c r="BQ2" s="1" t="inlineStr">
         <is>
-          <t>Resin lifetime [cycles]</t>
+          <t>Ion exchange nh3 resin lifetime [cycles]</t>
         </is>
       </c>
       <c r="BR2" s="1" t="inlineStr">
         <is>
-          <t>Tubing length [m/column]</t>
+          <t>Ion exchange nh3 tubing length [m/column]</t>
         </is>
       </c>
       <c r="BS2" s="1" t="inlineStr">
         <is>
-          <t>Pvc mass [kg PVC/m]</t>
+          <t>Ion exchange nh3 pvc mass [kg PVC/m]</t>
         </is>
       </c>
       <c r="BT2" s="1" t="inlineStr">
         <is>
-          <t>Tubing mass [kg PE /m]</t>
+          <t>Ion exchange nh3 tubing mass [kg PE /m]</t>
         </is>
       </c>
       <c r="BU2" s="1" t="inlineStr">
         <is>
-          <t>Tank mass [kg PE/300 L tank]</t>
+          <t>Ion exchange nh3 tank mass [kg PE/300 L tank]</t>
         </is>
       </c>
       <c r="BV2" s="1" t="inlineStr">
         <is>
-          <t>Tank cost [USD/tank]</t>
+          <t>Ion exchange nh3 tank cost [USD/tank]</t>
         </is>
       </c>
       <c r="BW2" s="1" t="inlineStr">
         <is>
-          <t>Tau [d]</t>
+          <t>Liquid treatment bed tau [d]</t>
         </is>
       </c>
       <c r="BX2" s="1" t="inlineStr">
         <is>
-          <t>COD max decay [% of total COD]</t>
+          <t>Liquid treatment bed COD max decay [% of total COD]</t>
         </is>
       </c>
       <c r="BY2" s="1" t="inlineStr">
         <is>
-          <t>MCF decay [% anaerobic conversion of degraded COD]</t>
+          <t>Liquid treatment bed MCF decay [% anaerobic conversion of degraded COD]</t>
         </is>
       </c>
       <c r="BZ2" s="1" t="inlineStr">
         <is>
-          <t>N max decay [% N removal]</t>
+          <t>Liquid treatment bed N max decay [% N removal]</t>
         </is>
       </c>
       <c r="CA2" s="1" t="inlineStr">
         <is>
-          <t>N2O EF decay [% of degraded N emitted as N2O]</t>
+          <t>Liquid treatment bed n2o EF decay [% of degraded N emitted as N2O]</t>
         </is>
       </c>
       <c r="CB2" s="1" t="inlineStr">
         <is>
-          <t>Bed H [m]</t>
+          <t>Liquid treatment bed bed H [m]</t>
         </is>
       </c>
       <c r="CC2" s="1" t="inlineStr">
         <is>
-          <t>Concrete thickness [m]</t>
+          <t>Liquid treatment bed concrete thickness [m]</t>
         </is>
       </c>
       <c r="CD2" s="1" t="inlineStr">
         <is>
-          <t>Icp controller board [USD]</t>
+          <t>Control box OP icp controller board [USD]</t>
         </is>
       </c>
       <c r="CE2" s="1" t="inlineStr">
         <is>
-          <t>Icp variable frequence drives [USD]</t>
+          <t>Control box OP icp variable frequence drives [USD]</t>
         </is>
       </c>
       <c r="CF2" s="1" t="inlineStr">
         <is>
-          <t>Icp power meter [USD]</t>
+          <t>Control box OP icp power meter [USD]</t>
         </is>
       </c>
       <c r="CG2" s="1" t="inlineStr">
         <is>
-          <t>Icp line filter [USD]</t>
+          <t>Control box OP icp line filter [USD]</t>
         </is>
       </c>
       <c r="CH2" s="1" t="inlineStr">
         <is>
-          <t>Icp power meter transformer [USD]</t>
+          <t>Control box OP icp power meter transformer [USD]</t>
         </is>
       </c>
       <c r="CI2" s="1" t="inlineStr">
         <is>
-          <t>Icp touch screen [USD]</t>
+          <t>Control box OP icp touch screen [USD]</t>
         </is>
       </c>
       <c r="CJ2" s="1" t="inlineStr">
         <is>
-          <t>Electrician replacecables icp [nan]</t>
+          <t>Control box OP electrician replacecables icp [nan]</t>
         </is>
       </c>
       <c r="CK2" s="1" t="inlineStr">
         <is>
-          <t>Electrician replacewires icp [nan]</t>
+          <t>Control box OP electrician replacewires icp [nan]</t>
         </is>
       </c>
       <c r="CL2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacetouchscreen icp [nan]</t>
+          <t>Control box OP service team replacetouchscreen icp [nan]</t>
         </is>
       </c>
       <c r="CM2" s="1" t="inlineStr">
         <is>
-          <t>Facility manager configurevariable icp [nan]</t>
+          <t>Control box OP facility manager configurevariable icp [nan]</t>
         </is>
       </c>
       <c r="CN2" s="1" t="inlineStr">
         <is>
-          <t>Biomass controls replaceboard icp [nan]</t>
+          <t>Control box OP biomass controls replaceboard icp [nan]</t>
         </is>
       </c>
       <c r="CO2" s="1" t="inlineStr">
         <is>
-          <t>Biomass controls codemalfunctioning icp [nan]</t>
+          <t>Control box OP biomass controls codemalfunctioning icp [nan]</t>
         </is>
       </c>
       <c r="CP2" s="1" t="inlineStr">
         <is>
-          <t>Frequency corrective maintenance [y / occurance]</t>
+          <t>Control box OP frequency corrective maintenance [y / occurance]</t>
         </is>
       </c>
       <c r="CQ2" s="1" t="inlineStr">
         <is>
-          <t>Container20ft cost [USD]</t>
+          <t>Housing biogenic refinery container20ft cost [USD]</t>
         </is>
       </c>
       <c r="CR2" s="1" t="inlineStr">
         <is>
-          <t>Container40ft cost [USD]</t>
+          <t>Housing biogenic refinery container40ft cost [USD]</t>
         </is>
       </c>
       <c r="CS2" s="1" t="inlineStr">
         <is>
-          <t>Stainless steel housing [USD per m2]</t>
+          <t>Housing biogenic refinery stainless steel housing [USD per m2]</t>
         </is>
       </c>
       <c r="CT2" s="1" t="inlineStr">
         <is>
-          <t>Concrete cost [USD per m3]</t>
+          <t>Housing biogenic refinery concrete cost [USD per m3]</t>
         </is>
       </c>
       <c r="CU2" s="1" t="inlineStr">
         <is>
-          <t>Concrete thickness [m]</t>
+          <t>Housing biogenic refinery concrete thickness [m]</t>
         </is>
       </c>
       <c r="CV2" s="1" t="inlineStr">
         <is>
-          <t>Footprint [m2]</t>
+          <t>Housing biogenic refinery footprint [m2]</t>
         </is>
       </c>
       <c r="CW2" s="1" t="inlineStr">
         <is>
-          <t>Grinder [usd]</t>
+          <t>Grinder grinder [usd]</t>
         </is>
       </c>
       <c r="CX2" s="1" t="inlineStr">
         <is>
-          <t>Grinder steel [kg]</t>
+          <t>Grinder grinder steel [kg]</t>
         </is>
       </c>
       <c r="CY2" s="1" t="inlineStr">
         <is>
-          <t>Grinder electricity [kwh/kg]</t>
+          <t>Grinder grinder electricity [kwh/kg]</t>
         </is>
       </c>
       <c r="CZ2" s="1" t="inlineStr">
         <is>
-          <t>Energy required to dry sludge [MJ/kg water]</t>
+          <t>Carbonizer base energy required to dry sludge [MJ/kg water]</t>
         </is>
       </c>
       <c r="DA2" s="1" t="inlineStr">
         <is>
-          <t>Dry feces heat of combustion [MJ/kg dry]</t>
+          <t>Carbonizer base dry feces heat of combustion [MJ/kg dry]</t>
         </is>
       </c>
       <c r="DB2" s="1" t="inlineStr">
         <is>
-          <t>Pyrolysis pot cost cb [USD]</t>
+          <t>Carbonizer base pyrolysis pot cost cb [USD]</t>
         </is>
       </c>
       <c r="DC2" s="1" t="inlineStr">
         <is>
-          <t>Char auger motor cost cb [USD]</t>
+          <t>Carbonizer base char auger motor cost cb [USD]</t>
         </is>
       </c>
       <c r="DD2" s="1" t="inlineStr">
         <is>
-          <t>Fuel auger motor cost cb [USD]</t>
+          <t>Carbonizer base fuel auger motor cost cb [USD]</t>
         </is>
       </c>
       <c r="DE2" s="1" t="inlineStr">
         <is>
-          <t>Primary air blower cost cb [USD]</t>
+          <t>Carbonizer base primary air blower cost cb [USD]</t>
         </is>
       </c>
       <c r="DF2" s="1" t="inlineStr">
         <is>
-          <t>Thermocouple cost cb pcd [USD]</t>
+          <t>Carbonizer base thermocouple cost cb pcd [USD]</t>
         </is>
       </c>
       <c r="DG2" s="1" t="inlineStr">
         <is>
-          <t>Thermistor cost cb pcd [USD]</t>
+          <t>Carbonizer base thermistor cost cb pcd [USD]</t>
         </is>
       </c>
       <c r="DH2" s="1" t="inlineStr">
         <is>
-          <t>Forced air fan cost cb [USD]</t>
+          <t>Carbonizer base forced air fan cost cb [USD]</t>
         </is>
       </c>
       <c r="DI2" s="1" t="inlineStr">
         <is>
-          <t>Airlock motor cost cb [USD]</t>
+          <t>Carbonizer base airlock motor cost cb [USD]</t>
         </is>
       </c>
       <c r="DJ2" s="1" t="inlineStr">
         <is>
-          <t>Inducer fan cost cb [USD]</t>
+          <t>Carbonizer base inducer fan cost cb [USD]</t>
         </is>
       </c>
       <c r="DK2" s="1" t="inlineStr">
         <is>
-          <t>Biochar collection box cost cb [USD]</t>
+          <t>Carbonizer base biochar collection box cost cb [USD]</t>
         </is>
       </c>
       <c r="DL2" s="1" t="inlineStr">
         <is>
-          <t>Chain guards cost cb [USD]</t>
+          <t>Carbonizer base chain guards cost cb [USD]</t>
         </is>
       </c>
       <c r="DM2" s="1" t="inlineStr">
         <is>
-          <t>Door cost cb [USD]</t>
+          <t>Carbonizer base door cost cb [USD]</t>
         </is>
       </c>
       <c r="DN2" s="1" t="inlineStr">
         <is>
-          <t>Agitator cost cb [USD]</t>
+          <t>Carbonizer base agitator cost cb [USD]</t>
         </is>
       </c>
       <c r="DO2" s="1" t="inlineStr">
         <is>
-          <t>Combusion chamber cost cb [USD]</t>
+          <t>Carbonizer base combusion chamber cost cb [USD]</t>
         </is>
       </c>
       <c r="DP2" s="1" t="inlineStr">
         <is>
-          <t>Sprayer cost cb [USD]</t>
+          <t>Carbonizer base sprayer cost cb [USD]</t>
         </is>
       </c>
       <c r="DQ2" s="1" t="inlineStr">
         <is>
-          <t>Vent cost cb [USD]</t>
+          <t>Carbonizer base vent cost cb [USD]</t>
         </is>
       </c>
       <c r="DR2" s="1" t="inlineStr">
         <is>
-          <t>SO2 emissions [mg/Nm3]</t>
+          <t>Carbonizer base so2 emissions [mg/Nm3]</t>
         </is>
       </c>
       <c r="DS2" s="1" t="inlineStr">
         <is>
-          <t>CO emissions [mg/Nm3]</t>
+          <t>Carbonizer base CO emissions [mg/Nm3]</t>
         </is>
       </c>
       <c r="DT2" s="1" t="inlineStr">
         <is>
-          <t>Hg emissions [mg/Nm3]</t>
+          <t>Carbonizer base hg emissions [mg/Nm3]</t>
         </is>
       </c>
       <c r="DU2" s="1" t="inlineStr">
         <is>
-          <t>Cd emissions [mg/Nm3]</t>
+          <t>Carbonizer base cd emissions [mg/Nm3]</t>
         </is>
       </c>
       <c r="DV2" s="1" t="inlineStr">
         <is>
-          <t>As emissions [mg/Nm3]</t>
+          <t>Carbonizer base as emissions [mg/Nm3]</t>
         </is>
       </c>
       <c r="DW2" s="1" t="inlineStr">
         <is>
-          <t>Dioxin furans emissions [ng/Nm3]</t>
+          <t>Carbonizer base dioxin furans emissions [ng/Nm3]</t>
         </is>
       </c>
       <c r="DX2" s="1" t="inlineStr">
         <is>
-          <t>Cb n2o emissions [% of total N]</t>
+          <t>Carbonizer base cb n2o emissions [% of total N]</t>
         </is>
       </c>
       <c r="DY2" s="1" t="inlineStr">
         <is>
-          <t>Steel cost [USD/kg]</t>
+          <t>Carbonizer base steel cost [USD/kg]</t>
         </is>
       </c>
       <c r="DZ2" s="1" t="inlineStr">
         <is>
-          <t>Stainless steel cost [USD/kg]</t>
+          <t>Carbonizer base stainless steel cost [USD/kg]</t>
         </is>
       </c>
       <c r="EA2" s="1" t="inlineStr">
         <is>
-          <t>Primary air blower lifetime cb [y]</t>
+          <t>Carbonizer base primary air blower lifetime cb [y]</t>
         </is>
       </c>
       <c r="EB2" s="1" t="inlineStr">
         <is>
-          <t>Thermocouple lifetime cb 2pcd [y]</t>
+          <t>Carbonizer base thermocouple lifetime cb 2pcd [y]</t>
         </is>
       </c>
       <c r="EC2" s="1" t="inlineStr">
         <is>
-          <t>Forced air fan lifetime cb [y]</t>
+          <t>Carbonizer base forced air fan lifetime cb [y]</t>
         </is>
       </c>
       <c r="ED2" s="1" t="inlineStr">
         <is>
-          <t>Airlock motor lifetime cb [y]</t>
+          <t>Carbonizer base airlock motor lifetime cb [y]</t>
         </is>
       </c>
       <c r="EE2" s="1" t="inlineStr">
         <is>
-          <t>Inducer fan lifetime cb [y]</t>
+          <t>Carbonizer base inducer fan lifetime cb [y]</t>
         </is>
       </c>
       <c r="EF2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacegasket cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacegasket cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EG2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacedoor cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacedoor cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EH2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacechain cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacechain cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EI2" s="1" t="inlineStr">
         <is>
-          <t>Service team changefirepot cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team changefirepot cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EJ2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacecharaugers cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacecharaugers cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EK2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacecatalyst pcd [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacecatalyst pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EL2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacebrick pcd [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacebrick pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EM2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacefuelauger pcd [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacefuelauger pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EN2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacewaterpump hhx [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacewaterpump hhx [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EO2" s="1" t="inlineStr">
         <is>
-          <t>Service team purgewaterloop hhx [min / corrective maintenance]</t>
+          <t>Carbonizer base service team purgewaterloop hhx [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EP2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacecharmotor cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacecharmotor cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EQ2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacefuelmotor cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacefuelmotor cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="ER2" s="1" t="inlineStr">
         <is>
-          <t>Service team replaceblower cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replaceblower cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="ES2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacefan cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacefan cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="ET2" s="1" t="inlineStr">
         <is>
-          <t>Service team replaceo2sensor pcd [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replaceo2sensor pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EU2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacepaddleswitch cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replacepaddleswitch cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EV2" s="1" t="inlineStr">
         <is>
-          <t>Service team replaceairlock cb [min / corrective maintenance]</t>
+          <t>Carbonizer base service team replaceairlock cb [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="EW2" s="1" t="inlineStr">
         <is>
-          <t>Service team greasebearing cb [min / month]</t>
+          <t>Carbonizer base service team greasebearing cb [min / month]</t>
         </is>
       </c>
       <c r="EX2" s="1" t="inlineStr">
         <is>
-          <t>Service team tighten cb [min / month]</t>
+          <t>Carbonizer base service team tighten cb [min / month]</t>
         </is>
       </c>
       <c r="EY2" s="1" t="inlineStr">
         <is>
-          <t>Service team adjustdoor cb [min / month]</t>
+          <t>Carbonizer base service team adjustdoor cb [min / month]</t>
         </is>
       </c>
       <c r="EZ2" s="1" t="inlineStr">
         <is>
-          <t>Service team adjustdoor pcd [min / month]</t>
+          <t>Carbonizer base service team adjustdoor pcd [min / month]</t>
         </is>
       </c>
       <c r="FA2" s="1" t="inlineStr">
         <is>
-          <t>Service team adjustdoor hhx [min / month]</t>
+          <t>Carbonizer base service team adjustdoor hhx [min / month]</t>
         </is>
       </c>
       <c r="FB2" s="1" t="inlineStr">
         <is>
-          <t>Frequency corrective maintenance [y / occurance]</t>
+          <t>Carbonizer base frequency corrective maintenance [y / occurance]</t>
         </is>
       </c>
       <c r="FC2" s="1" t="inlineStr">
         <is>
-          <t>Biochar calorific value [MJ/kg dry]</t>
+          <t>Carbonizer base biochar calorific value [MJ/kg dry]</t>
         </is>
       </c>
       <c r="FD2" s="1" t="inlineStr">
         <is>
-          <t>Pyrolysis temp [C]</t>
+          <t>Carbonizer base pyrolysis temp [C]</t>
         </is>
       </c>
       <c r="FE2" s="1" t="inlineStr">
         <is>
-          <t>Pyrolysis C loss [fraction of total C]</t>
+          <t>Carbonizer base pyrolysis C loss [fraction of total C]</t>
         </is>
       </c>
       <c r="FF2" s="1" t="inlineStr">
         <is>
-          <t>Pyrolysis N loss [fraction of total N]</t>
+          <t>Carbonizer base pyrolysis N loss [fraction of total N]</t>
         </is>
       </c>
       <c r="FG2" s="1" t="inlineStr">
         <is>
-          <t>Pyrolysis K loss [fraction of total K]</t>
+          <t>Carbonizer base pyrolysis K loss [fraction of total K]</t>
         </is>
       </c>
       <c r="FH2" s="1" t="inlineStr">
         <is>
-          <t>Pyrolysis P loss [fraction of total P]</t>
+          <t>Carbonizer base pyrolysis P loss [fraction of total P]</t>
         </is>
       </c>
       <c r="FI2" s="1" t="inlineStr">
         <is>
-          <t>N to NH3 [fraction of N]</t>
+          <t>Carbonizer Base N to NH3 [fraction of N]</t>
         </is>
       </c>
       <c r="FJ2" s="1" t="inlineStr">
         <is>
-          <t>N to HCNO [fraction of N]</t>
+          <t>Carbonizer base N to HCNO [fraction of N]</t>
         </is>
       </c>
       <c r="FK2" s="1" t="inlineStr">
         <is>
-          <t>HCNO to NH3 [fraction of HCNO]</t>
+          <t>Carbonizer Base HCNO to NH3 [fraction of HCNO]</t>
         </is>
       </c>
       <c r="FL2" s="1" t="inlineStr">
         <is>
-          <t>NH3 to n2o [fraction of NH3]</t>
+          <t>Carbonizer base nh3 to n2o [fraction of NH3]</t>
         </is>
       </c>
       <c r="FM2" s="1" t="inlineStr">
         <is>
-          <t>Carbon COD ratio [g C*g COD-1]</t>
+          <t>Carbonizer base carbon COD ratio [g C*g COD-1]</t>
         </is>
       </c>
       <c r="FN2" s="1" t="inlineStr">
         <is>
-          <t>O2 sensor cost pcd [USD]</t>
+          <t>Pollution control device o2 sensor cost pcd [USD]</t>
         </is>
       </c>
       <c r="FO2" s="1" t="inlineStr">
         <is>
-          <t>Thermocouple cost cb pcd [USD]</t>
+          <t>Pollution control device thermocouple cost cb pcd [USD]</t>
         </is>
       </c>
       <c r="FP2" s="1" t="inlineStr">
         <is>
-          <t>Thermistor cost cb pcd [USD]</t>
+          <t>Pollution control device thermistor cost cb pcd [USD]</t>
         </is>
       </c>
       <c r="FQ2" s="1" t="inlineStr">
         <is>
-          <t>Input auger pcd [USD]</t>
+          <t>Pollution control device input auger pcd [USD]</t>
         </is>
       </c>
       <c r="FR2" s="1" t="inlineStr">
         <is>
-          <t>Input auger motor pcd [USD]</t>
+          <t>Pollution control device input auger motor pcd [USD]</t>
         </is>
       </c>
       <c r="FS2" s="1" t="inlineStr">
         <is>
-          <t>Catylist pcd [USD]</t>
+          <t>Pollution control device catylist pcd [USD]</t>
         </is>
       </c>
       <c r="FT2" s="1" t="inlineStr">
         <is>
-          <t>Catalyst access door pcd [USD]</t>
+          <t>Pollution control device catalyst access door pcd [USD]</t>
         </is>
       </c>
       <c r="FU2" s="1" t="inlineStr">
         <is>
-          <t>Feedstock staging bin pcd [USD]</t>
+          <t>Pollution control device feedstock staging bin pcd [USD]</t>
         </is>
       </c>
       <c r="FV2" s="1" t="inlineStr">
         <is>
-          <t>Temperature limit switch pcd [USD]</t>
+          <t>Pollution control device temperature limit switch pcd [USD]</t>
         </is>
       </c>
       <c r="FW2" s="1" t="inlineStr">
         <is>
-          <t>Airlock pcd [USD]</t>
+          <t>Pollution control device airlock pcd [USD]</t>
         </is>
       </c>
       <c r="FX2" s="1" t="inlineStr">
         <is>
-          <t>Steel cost [USD/kg]</t>
+          <t>Pollution control device steel cost [USD/kg]</t>
         </is>
       </c>
       <c r="FY2" s="1" t="inlineStr">
         <is>
-          <t>Stainless steel cost [USD/kg]</t>
+          <t>Pollution control device stainless steel cost [USD/kg]</t>
         </is>
       </c>
       <c r="FZ2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacecatalyst pcd [min / corrective maintenance]</t>
+          <t>Pollution control device service team replacecatalyst pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="GA2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacebrick pcd [min / corrective maintenance]</t>
+          <t>Pollution control device service team replacebrick pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="GB2" s="1" t="inlineStr">
         <is>
-          <t>Service team replaceo2sensor pcd [min / corrective maintenance]</t>
+          <t>Pollution control device service team replaceo2sensor pcd [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="GC2" s="1" t="inlineStr">
         <is>
-          <t>Service team adjustdoor pcd [min / month]</t>
+          <t>Pollution control device service team adjustdoor pcd [min / month]</t>
         </is>
       </c>
       <c r="GD2" s="1" t="inlineStr">
         <is>
-          <t>Thermocouple lifetime cb 2pcd [y]</t>
+          <t>Pollution control device thermocouple lifetime cb 2pcd [y]</t>
         </is>
       </c>
       <c r="GE2" s="1" t="inlineStr">
         <is>
-          <t>Frequency corrective maintenance [y / occurance]</t>
+          <t>Pollution control device frequency corrective maintenance [y / occurance]</t>
         </is>
       </c>
       <c r="GF2" s="1" t="inlineStr">
         <is>
-          <t>Catalyst temp [C]</t>
+          <t>Pollution control device catalyst temp [C]</t>
         </is>
       </c>
       <c r="GG2" s="1" t="inlineStr">
         <is>
-          <t>Orc cost [USD]</t>
+          <t>Oil heat exchanger orc cost [USD]</t>
         </is>
       </c>
       <c r="GH2" s="1" t="inlineStr">
         <is>
-          <t>Oil pump power [kW]</t>
+          <t>Oil heat exchanger oil pump power [kW]</t>
         </is>
       </c>
       <c r="GI2" s="1" t="inlineStr">
         <is>
-          <t>Oil electrical energy generated [kW]</t>
+          <t>Oil heat exchanger oil electrical energy generated [kW]</t>
         </is>
       </c>
       <c r="GJ2" s="1" t="inlineStr">
         <is>
-          <t>Oil flowrate [L/min]</t>
+          <t>Oil heat exchanger oil flowrate [L/min]</t>
         </is>
       </c>
       <c r="GK2" s="1" t="inlineStr">
         <is>
-          <t>Ohx temp [C]</t>
+          <t>Oil heat exchanger ohx temp [C]</t>
         </is>
       </c>
       <c r="GL2" s="1" t="inlineStr">
         <is>
-          <t>Oil temp in [C]</t>
+          <t>Oil heat exchanger oil temp in [C]</t>
         </is>
       </c>
       <c r="GM2" s="1" t="inlineStr">
         <is>
-          <t>Oil temp out [C]</t>
+          <t>Oil heat exchanger oil temp out [C]</t>
         </is>
       </c>
       <c r="GN2" s="1" t="inlineStr">
         <is>
-          <t>Amb temp [C]</t>
+          <t>Oil heat exchanger amb temp [C]</t>
         </is>
       </c>
       <c r="GO2" s="1" t="inlineStr">
         <is>
-          <t>Heat exchanger hydronic steel [kg]</t>
+          <t>Hydronic heat exchanger heat exchanger hydronic steel [kg]</t>
         </is>
       </c>
       <c r="GP2" s="1" t="inlineStr">
         <is>
-          <t>Heat exchanger hydronic stainless [kg]</t>
+          <t>Hydronic heat exchanger heat exchanger hydronic stainless [kg]</t>
         </is>
       </c>
       <c r="GQ2" s="1" t="inlineStr">
         <is>
-          <t>Water pump power [kW]</t>
+          <t>Hydronic heat exchanger water pump power [kW]</t>
         </is>
       </c>
       <c r="GR2" s="1" t="inlineStr">
         <is>
-          <t>Hhx inducer fan power [kW]</t>
+          <t>Hydronic heat exchanger hhx inducer fan power [kW]</t>
         </is>
       </c>
       <c r="GS2" s="1" t="inlineStr">
         <is>
-          <t>Hhx stack [USD]</t>
+          <t>Hydronic heat exchanger hhx stack [USD]</t>
         </is>
       </c>
       <c r="GT2" s="1" t="inlineStr">
         <is>
-          <t>Hhx stack thermocouple [USD]</t>
+          <t>Hydronic heat exchanger hhx stack thermocouple [USD]</t>
         </is>
       </c>
       <c r="GU2" s="1" t="inlineStr">
         <is>
-          <t>Hhx oxygen sensor [USD]</t>
+          <t>Hydronic heat exchanger hhx oxygen sensor [USD]</t>
         </is>
       </c>
       <c r="GV2" s="1" t="inlineStr">
         <is>
-          <t>Hhx inducer fan [USD]</t>
+          <t>Hydronic heat exchanger hhx inducer fan [USD]</t>
         </is>
       </c>
       <c r="GW2" s="1" t="inlineStr">
         <is>
-          <t>Hhx flow meter [USD]</t>
+          <t>Hydronic heat exchanger hhx flow meter [USD]</t>
         </is>
       </c>
       <c r="GX2" s="1" t="inlineStr">
         <is>
-          <t>Hhx pump [USD]</t>
+          <t>Hydronic heat exchanger hhx pump [USD]</t>
         </is>
       </c>
       <c r="GY2" s="1" t="inlineStr">
         <is>
-          <t>Hhx water in thermistor [USD]</t>
+          <t>Hydronic heat exchanger hhx water in thermistor [USD]</t>
         </is>
       </c>
       <c r="GZ2" s="1" t="inlineStr">
         <is>
-          <t>Hhx water out thermistor [USD]</t>
+          <t>Hydronic heat exchanger hhx water out thermistor [USD]</t>
         </is>
       </c>
       <c r="HA2" s="1" t="inlineStr">
         <is>
-          <t>Hhx load tank [USD]</t>
+          <t>Hydronic heat exchanger hhx load tank [USD]</t>
         </is>
       </c>
       <c r="HB2" s="1" t="inlineStr">
         <is>
-          <t>Hhx expansion tank [USD]</t>
+          <t>Hydronic heat exchanger hhx expansion tank [USD]</t>
         </is>
       </c>
       <c r="HC2" s="1" t="inlineStr">
         <is>
-          <t>Hhx heat exchanger [USD]</t>
+          <t>Hydronic heat exchanger hhx heat exchanger [USD]</t>
         </is>
       </c>
       <c r="HD2" s="1" t="inlineStr">
         <is>
-          <t>Hhx values [USD]</t>
+          <t>Hydronic heat exchanger hhx values [USD]</t>
         </is>
       </c>
       <c r="HE2" s="1" t="inlineStr">
         <is>
-          <t>Hhx thermal well [USD]</t>
+          <t>Hydronic heat exchanger hhx thermal well [USD]</t>
         </is>
       </c>
       <c r="HF2" s="1" t="inlineStr">
         <is>
-          <t>Hhx hot water tank [USD]</t>
+          <t>Hydronic heat exchanger hhx hot water tank [USD]</t>
         </is>
       </c>
       <c r="HG2" s="1" t="inlineStr">
         <is>
-          <t>Hhx overflow tank [USD]</t>
+          <t>Hydronic heat exchanger hhx overflow tank [USD]</t>
         </is>
       </c>
       <c r="HH2" s="1" t="inlineStr">
         <is>
-          <t>Steel cost [USD/kg]</t>
+          <t>Hydronic heat exchanger steel cost [USD/kg]</t>
         </is>
       </c>
       <c r="HI2" s="1" t="inlineStr">
         <is>
-          <t>Stainless steel cost [USD/kg]</t>
+          <t>Hydronic heat exchanger stainless steel cost [USD/kg]</t>
         </is>
       </c>
       <c r="HJ2" s="1" t="inlineStr">
         <is>
-          <t>Frequency corrective maintenance [y / occurance]</t>
+          <t>Hydronic heat exchanger frequency corrective maintenance [y / occurance]</t>
         </is>
       </c>
       <c r="HK2" s="1" t="inlineStr">
         <is>
-          <t>Service team adjustdoor hhx [min / month]</t>
+          <t>Hydronic heat exchanger service team adjustdoor hhx [min / month]</t>
         </is>
       </c>
       <c r="HL2" s="1" t="inlineStr">
         <is>
-          <t>Service team replacewaterpump hhx [min / corrective maintenance]</t>
+          <t>Hydronic heat exchanger service team replacewaterpump hhx [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="HM2" s="1" t="inlineStr">
         <is>
-          <t>Service team purgewaterloop hhx [min / corrective maintenance]</t>
+          <t>Hydronic heat exchanger service team purgewaterloop hhx [min / corrective maintenance]</t>
         </is>
       </c>
       <c r="HN2" s="1" t="inlineStr">
         <is>
-          <t>Hhx temp [C]</t>
+          <t>Hydronic heat exchanger hhx temp [C]</t>
         </is>
       </c>
       <c r="HO2" s="1" t="inlineStr">
         <is>
-          <t>Water flowrate [L/min]</t>
+          <t>Hydronic heat exchanger water flowrate [L/min]</t>
         </is>
       </c>
       <c r="HP2" s="1" t="inlineStr">
         <is>
-          <t>Water out temp [C]</t>
+          <t>Hydronic heat exchanger water out temp [C]</t>
         </is>
       </c>
       <c r="HQ2" s="1" t="inlineStr">
         <is>
-          <t>Water in temp [C]</t>
+          <t>Hydronic heat exchanger water in temp [C]</t>
         </is>
       </c>
       <c r="HR2" s="1" t="inlineStr">
         <is>
-          <t>Ambient temp [C]</t>
+          <t>Hydronic heat exchanger ambient temp [C]</t>
         </is>
       </c>
       <c r="HS2" s="1" t="inlineStr">
         <is>
-          <t>Drying energy demand [kW]</t>
+          <t>HHXdryer drying energy demand [kW]</t>
         </is>
       </c>
       <c r="HT2" s="1" t="inlineStr">
         <is>
-          <t>Drying co2 emissions [% of total C]</t>
+          <t>HHXdryer drying co2 emissions [% of total C]</t>
         </is>
       </c>
       <c r="HU2" s="1" t="inlineStr">
         <is>
-          <t>Drying ch4 emissions [% of total C]</t>
+          <t>HHXdryer drying ch4 emissions [% of total C]</t>
         </is>
       </c>
       <c r="HV2" s="1" t="inlineStr">
         <is>
-          <t>Drying nh3 emissions [% of total N]</t>
+          <t>HHXdryer drying nh3 emissions [% of total N]</t>
         </is>
       </c>
       <c r="HW2" s="1" t="inlineStr">
         <is>
-          <t>NH3 to n2o [% of NH3]</t>
+          <t>HHXdryer nh3 to n2o [% of NH3]</t>
         </is>
       </c>
       <c r="HX2" s="1" t="inlineStr">
         <is>
-          <t>Energy required to dry sludge [MJ/kg water]</t>
+          <t>HHXdryer energy required to dry sludge [MJ/kg water]</t>
         </is>
       </c>
       <c r="HY2" s="1" t="inlineStr">
         <is>
-          <t>Ambient temp [C]</t>
+          <t>HHXdryer ambient temp [C]</t>
         </is>
       </c>
       <c r="HZ2" s="1" t="inlineStr">
         <is>
-          <t>Dryer heat transfer coeff [MJ / (h m2 K)]</t>
+          <t>HHXdryer dryer heat transfer coeff [MJ / (h m2 K)]</t>
         </is>
       </c>
       <c r="IA2" s="1" t="inlineStr">
         <is>
-          <t>Water out temp [C]</t>
+          <t>HHXdryer water out temp [C]</t>
         </is>
       </c>
       <c r="IB2" s="1" t="inlineStr">
         <is>
-          <t>Carbon COD ratio [g C*g COD-1]</t>
+          <t>HHXdryer carbon COD ratio [g C*g COD-1]</t>
         </is>
       </c>
       <c r="IC2" s="1" t="inlineStr">
@@ -29488,31 +29488,31 @@
         <v>3.958400726197738</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0002591125026210089</v>
+        <v>0.0002546042425448844</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.5393061722230743</v>
+        <v>0.8731976259698979</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.06492319308342259</v>
+        <v>0.120965696847856</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.45053618458776e-05</v>
+        <v>1.24138190869593e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>770.0587688085459</v>
+        <v>873.3152968327386</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6915488500777914</v>
+        <v>0.6825026159849938</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.880701963468721</v>
+        <v>0.7581620211761905</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.1354975137836743</v>
+        <v>0.1234019281260064</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.01391495378165063</v>
+        <v>0.02108047719557037</v>
       </c>
       <c r="AP4" t="n">
         <v>4.345293868343158</v>
@@ -29533,10 +29533,10 @@
         <v>8.966506409123971</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.4782960607165785</v>
+        <v>0.05981022823071039</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.900734178157731e-06</v>
+        <v>0.0009663927570973051</v>
       </c>
       <c r="AX4" t="n">
         <v>0.1263810610167265</v>
@@ -29632,7 +29632,7 @@
         <v>1.624029710422809</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.4109015921730382</v>
+        <v>0.2995322468468622</v>
       </c>
       <c r="CD4" t="n">
         <v>847.3893609265021</v>
@@ -29686,7 +29686,7 @@
         <v>186.2263886789822</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.2995322468468622</v>
+        <v>0.4109015921730382</v>
       </c>
       <c r="CV4" t="n">
         <v>39.14206708810234</v>
@@ -30708,31 +30708,31 @@
         <v>3.407009267564464</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0003406638052690112</v>
+        <v>0.0002890920915946849</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.4481109115785861</v>
+        <v>0.3240492896065585</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01954213098053269</v>
+        <v>0.03029958431053874</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.312327699169652e-05</v>
+        <v>1.117077399455234e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>903.8205956905958</v>
+        <v>735.6524640139673</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.7618019528986774</v>
+        <v>0.6987982876106904</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.7689853077414411</v>
+        <v>0.8215635051761366</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.1054828573032666</v>
+        <v>0.1133596753470827</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.009448248261513038</v>
+        <v>0.006802680500036929</v>
       </c>
       <c r="AP5" t="n">
         <v>3.433098557268506</v>
@@ -30753,10 +30753,10 @@
         <v>9.032697805507858</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.5502743489932356</v>
+        <v>0.09332252067326366</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0002224328624579338</v>
+        <v>0.000578313450602056</v>
       </c>
       <c r="AX5" t="n">
         <v>0.08306693317718591</v>
@@ -30852,7 +30852,7 @@
         <v>1.590825491805854</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.3326056322971638</v>
+        <v>0.2228295064062021</v>
       </c>
       <c r="CD5" t="n">
         <v>1285.913254959841</v>
@@ -30906,7 +30906,7 @@
         <v>212.9734544040964</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.2228295064062021</v>
+        <v>0.3326056322971638</v>
       </c>
       <c r="CV5" t="n">
         <v>46.02904312324826</v>
@@ -31928,31 +31928,31 @@
         <v>2.903707518565909</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0002519683647519025</v>
+        <v>0.0002776206429147993</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.2706832100608264</v>
+        <v>0.7361731518864393</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.02608017941739574</v>
+        <v>0.06575683313974499</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.491110994414545e-05</v>
+        <v>1.713114862538941e-05</v>
       </c>
       <c r="AK6" t="n">
-        <v>846.0666610625188</v>
+        <v>754.4819538453012</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.7240258707276473</v>
+        <v>0.7403953620713484</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.8392556769256456</v>
+        <v>0.8757050035138452</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.07955866446741718</v>
+        <v>0.06461808869942656</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.02220874062498974</v>
+        <v>0.02909236335308885</v>
       </c>
       <c r="AP6" t="n">
         <v>7.642987451882438</v>
@@ -31973,10 +31973,10 @@
         <v>9.094048113968665</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.5308406935273535</v>
+        <v>0.1236987554034427</v>
       </c>
       <c r="AW6" t="n">
-        <v>9.84371495153854e-05</v>
+        <v>0.0002588001780362451</v>
       </c>
       <c r="AX6" t="n">
         <v>0.08625191723354222</v>
@@ -32072,7 +32072,7 @@
         <v>1.396656522097011</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.4236671389614849</v>
+        <v>0.2651650094095847</v>
       </c>
       <c r="CD6" t="n">
         <v>1182.332557317736</v>
@@ -32126,7 +32126,7 @@
         <v>152.9830063233521</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.2651650094095847</v>
+        <v>0.4236671389614849</v>
       </c>
       <c r="CV6" t="n">
         <v>49.24327247404706</v>
@@ -33148,31 +33148,31 @@
         <v>2.378017285547968</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0002728648275328953</v>
+        <v>0.0003171878513040695</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6459753064516252</v>
+        <v>0.4798158307298114</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0883500418107763</v>
+        <v>0.1078655761104657</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.819471987033691e-05</v>
+        <v>1.461383643615351e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>894.4503725965687</v>
+        <v>703.2204238302791</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.7219981623395012</v>
+        <v>0.6638689470518696</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.8361325038564429</v>
+        <v>0.7846670289216577</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.04650976552844407</v>
+        <v>0.1877917150951408</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.06620223268748117</v>
+        <v>0.04288669024960537</v>
       </c>
       <c r="AP7" t="n">
         <v>5.391662775718514</v>
@@ -33193,10 +33193,10 @@
         <v>9.044918241050766</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.4671165449284551</v>
+        <v>0.09940455948856416</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0004308981233390148</v>
+        <v>0.000384574123896709</v>
       </c>
       <c r="AX7" t="n">
         <v>0.07512434598182924</v>
@@ -33292,7 +33292,7 @@
         <v>1.36275372663688</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.4353446463410471</v>
+        <v>0.4442434020118996</v>
       </c>
       <c r="CD7" t="n">
         <v>1319.415880976985</v>
@@ -33346,7 +33346,7 @@
         <v>188.7079280311382</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.4442434020118996</v>
+        <v>0.4353446463410471</v>
       </c>
       <c r="CV7" t="n">
         <v>42.54166549970748</v>
@@ -34368,31 +34368,31 @@
         <v>2.702799153028917</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.000283745848936816</v>
+        <v>0.0003223247819116543</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.4877839320378087</v>
+        <v>0.6541531384548966</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.1219303730698414</v>
+        <v>0.07942536063956714</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.921618315592132e-05</v>
+        <v>1.40343828952683e-05</v>
       </c>
       <c r="AK8" t="n">
-        <v>865.9117587338469</v>
+        <v>762.8771500406174</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.7325613148414738</v>
+        <v>0.7099218693415795</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.8017357485488046</v>
+        <v>0.8160569556294998</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.1615862480378367</v>
+        <v>0.1714331531013173</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.01199809589970106</v>
+        <v>0.0490507426817791</v>
       </c>
       <c r="AP8" t="n">
         <v>1.418196511123008</v>
@@ -34413,10 +34413,10 @@
         <v>8.936699222865776</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.5918570828578071</v>
+        <v>0.1137073133134924</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0005242857588588749</v>
+        <v>0.0008017455393595292</v>
       </c>
       <c r="AX8" t="n">
         <v>0.09464191932723552</v>
@@ -34512,7 +34512,7 @@
         <v>1.468539358498899</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.2469993072669293</v>
+        <v>0.312682745549929</v>
       </c>
       <c r="CD8" t="n">
         <v>1220.084216599695</v>
@@ -34566,7 +34566,7 @@
         <v>172.9421936899063</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.312682745549929</v>
+        <v>0.2469993072669293</v>
       </c>
       <c r="CV8" t="n">
         <v>43.47313112009046</v>
@@ -35588,31 +35588,31 @@
         <v>3.701032625913114</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0003326174260129319</v>
+        <v>0.0003390783414989081</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.3511770811692215</v>
+        <v>0.517079141125445</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.08011709264656372</v>
+        <v>0.05423919680191327</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.419705454534107e-05</v>
+        <v>1.789634680876848e-05</v>
       </c>
       <c r="AK9" t="n">
-        <v>729.7256301960317</v>
+        <v>749.0369477247509</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.7397597740542016</v>
+        <v>0.6909853118895892</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.7730616451782871</v>
+        <v>0.8511531584187061</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.1528528965959611</v>
+        <v>0.1548029748038963</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.01507802220796414</v>
+        <v>0.05972731755657828</v>
       </c>
       <c r="AP9" t="n">
         <v>4.611423506705407</v>
@@ -35633,10 +35633,10 @@
         <v>9.025131287987451</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.4908801500157269</v>
+        <v>0.07251942810585046</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.000654388978044447</v>
+        <v>0.0009131261741149596</v>
       </c>
       <c r="AX9" t="n">
         <v>0.09882119240088996</v>
@@ -35732,7 +35732,7 @@
         <v>1.281904608835138</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.1911065139237225</v>
+        <v>0.1860005237075579</v>
       </c>
       <c r="CD9" t="n">
         <v>1011.333258441935</v>
@@ -35786,7 +35786,7 @@
         <v>191.3364708991348</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.1860005237075579</v>
+        <v>0.1911065139237225</v>
       </c>
       <c r="CV9" t="n">
         <v>39.64059469744981</v>
@@ -36808,31 +36808,31 @@
         <v>3.645387593178183</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0002708673341416199</v>
+        <v>0.0002847060280773366</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.7564477116203872</v>
+        <v>0.3749109962917306</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.05547885018088702</v>
+        <v>0.09018682747676601</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.34088416088194e-05</v>
+        <v>1.213244975176694e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>753.1444711410984</v>
+        <v>719.6681501273752</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.6458663274480061</v>
+        <v>0.7228339617697171</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.8578030409729861</v>
+        <v>0.7513884841112033</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.2242182284149939</v>
+        <v>0.1443177708510065</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0183124170930843</v>
+        <v>0.02457264414285161</v>
       </c>
       <c r="AP10" t="n">
         <v>6.631229406269366</v>
@@ -36853,10 +36853,10 @@
         <v>8.928821911417925</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.5418517531108533</v>
+        <v>0.1359939134904301</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0002354999191967677</v>
+        <v>0.0002277122003156894</v>
       </c>
       <c r="AX10" t="n">
         <v>0.09373583688795552</v>
@@ -36952,7 +36952,7 @@
         <v>1.736315859070602</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.360769603242904</v>
+        <v>0.2772056335441361</v>
       </c>
       <c r="CD10" t="n">
         <v>1054.495964908424</v>
@@ -37006,7 +37006,7 @@
         <v>201.746874349916</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.2772056335441361</v>
+        <v>0.360769603242904</v>
       </c>
       <c r="CV10" t="n">
         <v>51.2153335142367</v>
@@ -38028,31 +38028,31 @@
         <v>3.531886990584949</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0002889810007787537</v>
+        <v>0.000325598512761782</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.3923193766015244</v>
+        <v>0.4498360756552606</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.05118217650101532</v>
+        <v>0.024291153681972</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.591907265486016e-05</v>
+        <v>1.62363485319518e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>733.931212651162</v>
+        <v>899.0171957647459</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.665740257315798</v>
+        <v>0.6568945420439917</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.7845476978315538</v>
+        <v>0.7722563268304213</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.1176658996854661</v>
+        <v>0.242644303200095</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.00825384550345068</v>
+        <v>0.01635181695241633</v>
       </c>
       <c r="AP11" t="n">
         <v>5.787817338995771</v>
@@ -38073,10 +38073,10 @@
         <v>9.017148004235874</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.4575213736776514</v>
+        <v>0.1322458802239244</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.0001200243183799895</v>
+        <v>0.0006019025764343233</v>
       </c>
       <c r="AX11" t="n">
         <v>0.1083503175415849</v>
@@ -38172,7 +38172,7 @@
         <v>1.414083099860949</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.2247393491169347</v>
+        <v>0.3799262735048997</v>
       </c>
       <c r="CD11" t="n">
         <v>968.6704529388963</v>
@@ -38226,7 +38226,7 @@
         <v>165.2828884328353</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.3799262735048997</v>
+        <v>0.2247393491169347</v>
       </c>
       <c r="CV11" t="n">
         <v>48.44852630565409</v>
@@ -39248,31 +39248,31 @@
         <v>2.814343459087409</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0003179661949107076</v>
+        <v>0.0003036223831354157</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.7156255630090835</v>
+        <v>0.5827620866347412</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.09578132115456039</v>
+        <v>0.09187604465433048</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.481858465702888e-05</v>
+        <v>1.507490883750285e-05</v>
       </c>
       <c r="AK12" t="n">
-        <v>760.6940160734513</v>
+        <v>782.84771687486</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.6973931173045287</v>
+        <v>0.6468477578171379</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.7944705247877566</v>
+        <v>0.8060040071164506</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.02069933043492603</v>
+        <v>0.2153715252871141</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.02664805939372732</v>
+        <v>0.01137084842553708</v>
       </c>
       <c r="AP12" t="n">
         <v>4.305806589975976</v>
@@ -39293,10 +39293,10 @@
         <v>8.946265703416282</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.5018033735570582</v>
+        <v>0.1108092753487901</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0004924867308825913</v>
+        <v>0.0004270252173495331</v>
       </c>
       <c r="AX12" t="n">
         <v>0.1141723073305421</v>
@@ -39392,7 +39392,7 @@
         <v>1.302464776102917</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.3042558012925674</v>
+        <v>0.176507936147784</v>
       </c>
       <c r="CD12" t="n">
         <v>1095.19217147681</v>
@@ -39446,7 +39446,7 @@
         <v>196.9386459533468</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.176507936147784</v>
+        <v>0.3042558012925674</v>
       </c>
       <c r="CV12" t="n">
         <v>40.56556633198299</v>
@@ -40468,31 +40468,31 @@
         <v>3.265967979564861</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0003069697004129868</v>
+        <v>0.0002723937884766553</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.5732773272466398</v>
+        <v>0.6874941849832589</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.08364524085769232</v>
+        <v>0.06023296800646501</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.786309893191507e-05</v>
+        <v>1.437323304363645e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>957.820749211766</v>
+        <v>694.066025988919</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.6431862582328407</v>
+        <v>0.64358779740979</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.7531998406277913</v>
+        <v>0.7235795857334105</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.1709093826553349</v>
+        <v>0.04032294376012505</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.02062232262002552</v>
+        <v>0.05412113798031752</v>
       </c>
       <c r="AP13" t="n">
         <v>3.772589740698228</v>
@@ -40513,10 +40513,10 @@
         <v>9.082414358315665</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.4885702737460067</v>
+        <v>0.06842498417513945</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0002631479265974098</v>
+        <v>0.0004984249438586564</v>
       </c>
       <c r="AX13" t="n">
         <v>0.1114114024616945</v>
@@ -40612,7 +40612,7 @@
         <v>1.327777923209861</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.3209623400400683</v>
+        <v>0.4028085083942702</v>
       </c>
       <c r="CD13" t="n">
         <v>1165.062640632937</v>
@@ -40666,7 +40666,7 @@
         <v>203.535786414909</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.4028085083942702</v>
+        <v>0.3209623400400683</v>
       </c>
       <c r="CV13" t="n">
         <v>44.47818323179279</v>
@@ -41688,31 +41688,31 @@
         <v>3.096038334979479</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0002924295417403601</v>
+        <v>0.0003104059896176071</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.3190902671802812</v>
+        <v>0.6064437333179784</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.03797539689111126</v>
+        <v>0.1133972806559243</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.665225261117276e-05</v>
+        <v>2.039107771475318e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>711.0110171635896</v>
+        <v>954.171546934107</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.6738322014892276</v>
+        <v>0.7307295558210811</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.7581610732169324</v>
+        <v>0.7445723298461031</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.1413494180461833</v>
+        <v>0.1658796371211315</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.02540292085996106</v>
+        <v>0.01366450299539902</v>
       </c>
       <c r="AP14" t="n">
         <v>7.177763087986093</v>
@@ -41733,10 +41733,10 @@
         <v>8.995148417582792</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.5080585547403212</v>
+        <v>0.07783607835803211</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0003153609435013035</v>
+        <v>0.0005142184752107566</v>
       </c>
       <c r="AX14" t="n">
         <v>0.1044144435799256</v>
@@ -41832,7 +41832,7 @@
         <v>1.669404027070003</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.2603293075131787</v>
+        <v>0.4146854689857564</v>
       </c>
       <c r="CD14" t="n">
         <v>811.8067606691708</v>
@@ -41886,7 +41886,7 @@
         <v>160.9704278263553</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.4146854689857564</v>
+        <v>0.2603293075131787</v>
       </c>
       <c r="CV14" t="n">
         <v>51.36385820964616</v>
@@ -42908,31 +42908,31 @@
         <v>3.326883637737874</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0003240734179785166</v>
+        <v>0.0003048804365768966</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.4383031406600098</v>
+        <v>0.5736200530125821</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.1110906878963147</v>
+        <v>0.03652123309226769</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.797697082481149e-06</v>
+        <v>1.640938493484503e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>817.2025812275745</v>
+        <v>786.5518859094091</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.6878998077332402</v>
+        <v>0.7142102789417428</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.7214643948276376</v>
+        <v>0.835662144933615</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.05950144367814177</v>
+        <v>0.1940467052529631</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.04996907944934236</v>
+        <v>0.0233961049445765</v>
       </c>
       <c r="AP15" t="n">
         <v>3.140372333923872</v>
@@ -42953,10 +42953,10 @@
         <v>9.005718309725841</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.4324933317853898</v>
+        <v>0.09002443173535904</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.0005843202087505067</v>
+        <v>4.63878604247796e-05</v>
       </c>
       <c r="AX15" t="n">
         <v>0.1238594548954317</v>
@@ -43052,7 +43052,7 @@
         <v>1.787005403011756</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.2978624798694872</v>
+        <v>0.361000979731444</v>
       </c>
       <c r="CD15" t="n">
         <v>918.1929783516578</v>
@@ -43106,7 +43106,7 @@
         <v>179.8421052562056</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.361000979731444</v>
+        <v>0.2978624798694872</v>
       </c>
       <c r="CV15" t="n">
         <v>53.69350872475415</v>
@@ -44128,31 +44128,31 @@
         <v>2.442585129407435</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0002786834816826729</v>
+        <v>0.0002974288814797774</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.9467621183337094</v>
+        <v>0.4200934368213921</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.1139985870888208</v>
+        <v>0.0423804966662203</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.126008081546366e-05</v>
+        <v>9.169085066058528e-06</v>
       </c>
       <c r="AK16" t="n">
-        <v>777.8148716475258</v>
+        <v>794.1308523964385</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.7091574530166896</v>
+        <v>0.7214105702724484</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.806051344537793</v>
+        <v>0.8000947046741657</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.2061795559239115</v>
+        <v>0.1383033295693053</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.003293795533744519</v>
+        <v>0.03099517569488838</v>
       </c>
       <c r="AP16" t="n">
         <v>6.294368065521642</v>
@@ -44173,10 +44173,10 @@
         <v>8.950014263842531</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.449614252842194</v>
+        <v>0.08552483014547904</v>
       </c>
       <c r="AW16" t="n">
-        <v>2.801603781859641e-05</v>
+        <v>0.0008542832418824173</v>
       </c>
       <c r="AX16" t="n">
         <v>0.07944017170481411</v>
@@ -44272,7 +44272,7 @@
         <v>1.523924299726547</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.2780632921175963</v>
+        <v>0.3510928170452337</v>
       </c>
       <c r="CD16" t="n">
         <v>1028.829326767806</v>
@@ -44326,7 +44326,7 @@
         <v>148.0663840967836</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.3510928170452337</v>
+        <v>0.2780632921175963</v>
       </c>
       <c r="CV16" t="n">
         <v>47.085336191296</v>
@@ -45348,31 +45348,31 @@
         <v>2.646489836293345</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0003042262842102661</v>
+        <v>0.0002610417976658664</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.5151064859207988</v>
+        <v>0.2339721295012475</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.1061738331003809</v>
+        <v>0.01531919009900651</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.207638429203032e-05</v>
+        <v>1.285876596249395e-05</v>
       </c>
       <c r="AK17" t="n">
-        <v>805.1178708580446</v>
+        <v>826.9878773683286</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.769059002062419</v>
+        <v>0.7625814780175674</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.7816524680867964</v>
+        <v>0.8446454277176281</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.1796654486428</v>
+        <v>0.08401290312685968</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.05472240247312722</v>
+        <v>0.04077161902703737</v>
       </c>
       <c r="AP17" t="n">
         <v>4.999510824768107</v>
@@ -45393,10 +45393,10 @@
         <v>8.979493582346961</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.475512254231594</v>
+        <v>0.1031273381464395</v>
       </c>
       <c r="AW17" t="n">
-        <v>7.07523908276525e-05</v>
+        <v>9.457710008450057e-05</v>
       </c>
       <c r="AX17" t="n">
         <v>0.1185057395166689</v>
@@ -45492,7 +45492,7 @@
         <v>1.693776496815105</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.3934560817298419</v>
+        <v>0.2019378685123616</v>
       </c>
       <c r="CD17" t="n">
         <v>885.4229522267403</v>
@@ -45546,7 +45546,7 @@
         <v>208.9614980422427</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.2019378685123616</v>
+        <v>0.3934560817298419</v>
       </c>
       <c r="CV17" t="n">
         <v>52.77317864763457</v>
@@ -46568,31 +46568,31 @@
         <v>2.016956478697008</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0002995419202435365</v>
+        <v>0.0002635903810133991</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.6193438169278629</v>
+        <v>0.3987635966839352</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.1004791983294679</v>
+        <v>0.07021993293702435</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.378178007481661e-05</v>
+        <v>1.042459897532114e-05</v>
       </c>
       <c r="AK18" t="n">
-        <v>799.0968559641129</v>
+        <v>842.0444729458325</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.6795654258641093</v>
+        <v>0.6758157539410587</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.8176594775256532</v>
+        <v>0.8653128251215071</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.1300520670911033</v>
+        <v>0.1294915580933988</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.04656776345965467</v>
+        <v>0.006026105506760403</v>
       </c>
       <c r="AP18" t="n">
         <v>2.086163597753405</v>
@@ -46613,10 +46613,10 @@
         <v>9.058441991748461</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.5248534904556151</v>
+        <v>0.1188621332389471</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.0001739206078356406</v>
+        <v>0.0001766785833257134</v>
       </c>
       <c r="AX18" t="n">
         <v>0.07789493862563598</v>
@@ -46712,7 +46712,7 @@
         <v>1.471510665069491</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.3491708343549397</v>
+        <v>0.430514044620768</v>
       </c>
       <c r="CD18" t="n">
         <v>716.5120071745855</v>
@@ -46766,7 +46766,7 @@
         <v>181.1027784046833</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.430514044620768</v>
+        <v>0.3491708343549397</v>
       </c>
       <c r="CV18" t="n">
         <v>38.12405906112655</v>
@@ -47788,31 +47788,31 @@
         <v>3.866560726063079</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0003106334006458186</v>
+        <v>0.0003333766471951628</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.2996751029206837</v>
+        <v>0.9708228326625336</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.05880584218243445</v>
+        <v>0.101438795529062</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.621481972976229e-05</v>
+        <v>1.342357791439215e-05</v>
       </c>
       <c r="AK19" t="n">
-        <v>746.9935842374225</v>
+        <v>812.8967242043049</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.7035162107626485</v>
+        <v>0.7044156484338205</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.7388800883005366</v>
+        <v>0.7977408657170911</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.1929555859954488</v>
+        <v>0.09437391270710462</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.0307795767621284</v>
+        <v>0.008473196963040415</v>
       </c>
       <c r="AP19" t="n">
         <v>2.947190944097731</v>
@@ -47833,10 +47833,10 @@
         <v>9.079271661444954</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.4999596205442567</v>
+        <v>0.0841436624631437</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.0001487262484092203</v>
+        <v>0.0003031416056416631</v>
       </c>
       <c r="AX19" t="n">
         <v>0.0881756028129969</v>
@@ -47932,7 +47932,7 @@
         <v>1.53747033407482</v>
       </c>
       <c r="CC19" t="n">
-        <v>0.2321743693474983</v>
+        <v>0.2329925769305556</v>
       </c>
       <c r="CD19" t="n">
         <v>1112.502134888471</v>
@@ -47986,7 +47986,7 @@
         <v>198.9200958584263</v>
       </c>
       <c r="CU19" t="n">
-        <v>0.2329925769305556</v>
+        <v>0.2321743693474983</v>
       </c>
       <c r="CV19" t="n">
         <v>45.13530303088542</v>
@@ -49008,31 +49008,31 @@
         <v>2.525692316259081</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0002549265189372516</v>
+        <v>0.0002513743298051849</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.70887038515843</v>
+        <v>0.5340640711156538</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.04233322120978097</v>
+        <v>0.114270434644558</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.559615446065695e-05</v>
+        <v>1.537646700433885e-05</v>
       </c>
       <c r="AK20" t="n">
-        <v>684.3098240884563</v>
+        <v>769.7806830342824</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.7116623119358744</v>
+        <v>0.6306407248076549</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.8119986733145929</v>
+        <v>0.7940975221522519</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.103131509679917</v>
+        <v>0.04634014231442049</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.0409271672699623</v>
+        <v>0.03340983827366062</v>
       </c>
       <c r="AP20" t="n">
         <v>5.126825891585028</v>
@@ -49053,10 +49053,10 @@
         <v>8.910717069775174</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.5106605717540825</v>
+        <v>0.1061023096258535</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.0003700027061449476</v>
+        <v>0.0007786339134282825</v>
       </c>
       <c r="AX20" t="n">
         <v>0.07175026263697992</v>
@@ -49152,7 +49152,7 @@
         <v>1.256440449581185</v>
       </c>
       <c r="CC20" t="n">
-        <v>0.1761828958578108</v>
+        <v>0.1584264028571923</v>
       </c>
       <c r="CD20" t="n">
         <v>803.1849346072903</v>
@@ -49206,7 +49206,7 @@
         <v>176.1565533808828</v>
       </c>
       <c r="CU20" t="n">
-        <v>0.1584264028571923</v>
+        <v>0.1761828958578108</v>
       </c>
       <c r="CV20" t="n">
         <v>37.6986459527631</v>
@@ -50228,31 +50228,31 @@
         <v>2.125912487040177</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0003351383054448468</v>
+        <v>0.0002720430349210738</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.8441275662025907</v>
+        <v>0.3086651906643202</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.03550510530386363</v>
+        <v>0.04850393184684278</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.035662655488894e-05</v>
+        <v>1.842726328784148e-05</v>
       </c>
       <c r="AK21" t="n">
-        <v>833.3965559313576</v>
+        <v>884.6047093859505</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.7461074029613465</v>
+        <v>0.7794537685013504</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.7999508136700745</v>
+        <v>0.7775221042880019</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.1108323705431624</v>
+        <v>0.07158990787429857</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.006212653477287439</v>
+        <v>0.0190201701613682</v>
       </c>
       <c r="AP21" t="n">
         <v>3.875130317549389</v>
@@ -50273,10 +50273,10 @@
         <v>9.064038171514946</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.5669526795792005</v>
+        <v>0.116570535435236</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.000338408315504975</v>
+        <v>0.0007402649315607854</v>
       </c>
       <c r="AX21" t="n">
         <v>0.1161202820745142</v>
@@ -50372,7 +50372,7 @@
         <v>1.740408651116234</v>
       </c>
       <c r="CC21" t="n">
-        <v>0.2092568432315595</v>
+        <v>0.2422612732142974</v>
       </c>
       <c r="CD21" t="n">
         <v>944.9115331315201</v>
@@ -50426,7 +50426,7 @@
         <v>169.337192414046</v>
       </c>
       <c r="CU21" t="n">
-        <v>0.2422612732142974</v>
+        <v>0.2092568432315595</v>
       </c>
       <c r="CV21" t="n">
         <v>50.26234231612091</v>
@@ -51448,31 +51448,31 @@
         <v>2.24810284514526</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.000321212879088483</v>
+        <v>0.0002920796956516278</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.4117845404994807</v>
+        <v>0.4318353203561561</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.02272346703091045</v>
+        <v>0.0389547258369436</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1.689400937253515e-05</v>
+        <v>1.388477090513285e-05</v>
       </c>
       <c r="AK22" t="n">
-        <v>852.4787774915683</v>
+        <v>859.7180817341351</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.6619299853396498</v>
+        <v>0.6855434645289725</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.827411923587152</v>
+        <v>0.7689086978253483</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.09582586006443937</v>
+        <v>0.1062578093032611</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.03747074891285065</v>
+        <v>0.002611912197904746</v>
       </c>
       <c r="AP22" t="n">
         <v>3.525491584253464</v>
@@ -51493,10 +51493,10 @@
         <v>8.908219737610439</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.4281003073315866</v>
+        <v>0.09619398823170283</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.0007292072789861851</v>
+        <v>0.0006824495819222987</v>
       </c>
       <c r="AX22" t="n">
         <v>0.1000029606765295</v>
@@ -51592,7 +51592,7 @@
         <v>1.574279360478748</v>
       </c>
       <c r="CC22" t="n">
-        <v>0.3898209297224012</v>
+        <v>0.3414578444185706</v>
       </c>
       <c r="CD22" t="n">
         <v>773.3050721578198</v>
@@ -51646,7 +51646,7 @@
         <v>159.5742004335553</v>
       </c>
       <c r="CU22" t="n">
-        <v>0.3414578444185706</v>
+        <v>0.3898209297224012</v>
       </c>
       <c r="CV22" t="n">
         <v>36.19066127553955</v>
@@ -52668,31 +52668,31 @@
         <v>3.123096420817645</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0002647662549543993</v>
+        <v>0.0003321196230912837</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.5767074900576807</v>
+        <v>0.8044545968421649</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.07283446539094283</v>
+        <v>0.08416496275600502</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.239799578726315e-05</v>
+        <v>1.573246794752653e-05</v>
       </c>
       <c r="AK23" t="n">
-        <v>788.3938894020353</v>
+        <v>811.4894842055833</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.6270819827123827</v>
+        <v>0.7487550400092507</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.8546710585335443</v>
+        <v>0.8285046450564059</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.07907084997241001</v>
+        <v>0.097280419476256</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.03399994045886128</v>
+        <v>0.03668949265644744</v>
       </c>
       <c r="AP23" t="n">
         <v>2.511709919274697</v>
@@ -52713,10 +52713,10 @@
         <v>8.982257069752295</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.5223143399256129</v>
+        <v>0.1002042456570464</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.0009128834947431369</v>
+        <v>0.0001469600462588312</v>
       </c>
       <c r="AX23" t="n">
         <v>0.1279928925650717</v>
@@ -52812,7 +52812,7 @@
         <v>1.229500623336599</v>
       </c>
       <c r="CC23" t="n">
-        <v>0.1534961527307501</v>
+        <v>0.3271519243718735</v>
       </c>
       <c r="CD23" t="n">
         <v>1253.646247163676</v>
@@ -52866,7 +52866,7 @@
         <v>154.6525035909737</v>
       </c>
       <c r="CU23" t="n">
-        <v>0.3271519243718735</v>
+        <v>0.1534961527307501</v>
       </c>
       <c r="CV23" t="n">
         <v>41.85919827921345</v>
@@ -53936,16 +53936,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08294192701672602</v>
+        <v>0.08266786359693692</v>
       </c>
       <c r="G4" t="n">
-        <v>2.286417055730828</v>
+        <v>1.864680736752129</v>
       </c>
       <c r="H4" t="n">
-        <v>2.859214066435213</v>
+        <v>2.858406914496499</v>
       </c>
       <c r="I4" t="n">
-        <v>26.24919006189489</v>
+        <v>26.22776172547047</v>
       </c>
     </row>
     <row r="5">
@@ -53959,22 +53959,22 @@
         <v>60.6429974899258</v>
       </c>
       <c r="D5" t="n">
-        <v>55.86617175776253</v>
+        <v>55.86617175776254</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07274931531027709</v>
+        <v>0.07252059665764604</v>
       </c>
       <c r="G5" t="n">
-        <v>2.353124893233512</v>
+        <v>2.174399813542842</v>
       </c>
       <c r="H5" t="n">
-        <v>3.329307455481044</v>
+        <v>3.328492099416697</v>
       </c>
       <c r="I5" t="n">
-        <v>32.66913274524048</v>
+        <v>32.64830240155003</v>
       </c>
     </row>
     <row r="6">
@@ -53982,28 +53982,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>64.55730782326823</v>
+        <v>64.5573078232682</v>
       </c>
       <c r="C6" t="n">
-        <v>43.8326467258854</v>
+        <v>43.83264672588539</v>
       </c>
       <c r="D6" t="n">
-        <v>63.54148816442835</v>
+        <v>63.54148816442834</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1320308988438619</v>
+        <v>0.1316474977990399</v>
       </c>
       <c r="G6" t="n">
-        <v>1.93280716494956</v>
+        <v>1.411939032734438</v>
       </c>
       <c r="H6" t="n">
-        <v>2.627755582261267</v>
+        <v>2.626474166958775</v>
       </c>
       <c r="I6" t="n">
-        <v>36.88600396125413</v>
+        <v>36.85650375182635</v>
       </c>
     </row>
     <row r="7">
@@ -54011,28 +54011,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>68.47290370053062</v>
+        <v>68.47290370053064</v>
       </c>
       <c r="C7" t="n">
-        <v>38.1556767449406</v>
+        <v>38.15567674494061</v>
       </c>
       <c r="D7" t="n">
-        <v>70.18410496579467</v>
+        <v>70.18410496579469</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04055838169179013</v>
+        <v>-0.04056019600072919</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09258039927287053</v>
+        <v>-0.2368317582994319</v>
       </c>
       <c r="H7" t="n">
-        <v>1.587644533381785</v>
+        <v>1.587837785401676</v>
       </c>
       <c r="I7" t="n">
-        <v>27.22958934553549</v>
+        <v>27.23097578273798</v>
       </c>
     </row>
     <row r="8">
@@ -54040,7 +54040,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>54.99152992459186</v>
+        <v>54.99152992459189</v>
       </c>
       <c r="C8" t="n">
         <v>42.72731535451884</v>
@@ -54052,16 +54052,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2462775864552947</v>
+        <v>0.2463691290936945</v>
       </c>
       <c r="G8" t="n">
-        <v>3.188553219121399</v>
+        <v>3.155762767647741</v>
       </c>
       <c r="H8" t="n">
-        <v>3.749552932028254</v>
+        <v>3.750022644650064</v>
       </c>
       <c r="I8" t="n">
-        <v>31.04890856154675</v>
+        <v>31.06146320130255</v>
       </c>
     </row>
     <row r="9">
@@ -54069,7 +54069,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>72.67375671189632</v>
+        <v>72.67375671189635</v>
       </c>
       <c r="C9" t="n">
         <v>28.12173127794905</v>
@@ -54081,16 +54081,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.07461939762570723</v>
+        <v>-0.07465566365732569</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.8306953788954408</v>
+        <v>-1.021638773279096</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7814339037983914</v>
+        <v>0.7814745970527496</v>
       </c>
       <c r="I9" t="n">
-        <v>23.59539347738503</v>
+        <v>23.59455509255715</v>
       </c>
     </row>
     <row r="10">
@@ -54098,28 +54098,28 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>68.08352070300678</v>
+        <v>68.0835207030068</v>
       </c>
       <c r="C10" t="n">
-        <v>33.03377830746543</v>
+        <v>33.03377830746542</v>
       </c>
       <c r="D10" t="n">
-        <v>78.96845658714732</v>
+        <v>78.96845658714733</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0652361963362402</v>
+        <v>-0.06546186376177072</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1543505739113418</v>
+        <v>-0.4301484265007821</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8994890321371904</v>
+        <v>0.8985915504013907</v>
       </c>
       <c r="I10" t="n">
-        <v>26.20340075577153</v>
+        <v>26.18550189652539</v>
       </c>
     </row>
     <row r="11">
@@ -54130,25 +54130,25 @@
         <v>55.20187768934147</v>
       </c>
       <c r="C11" t="n">
-        <v>53.49546041924454</v>
+        <v>53.49546041924453</v>
       </c>
       <c r="D11" t="n">
-        <v>69.09170079560486</v>
+        <v>69.09170079560482</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1169732628632962</v>
+        <v>0.1171454799353745</v>
       </c>
       <c r="G11" t="n">
-        <v>2.247099971604227</v>
+        <v>1.987385972976689</v>
       </c>
       <c r="H11" t="n">
-        <v>3.284480956948005</v>
+        <v>3.285634347761921</v>
       </c>
       <c r="I11" t="n">
-        <v>21.44349153503707</v>
+        <v>21.47492517357916</v>
       </c>
     </row>
     <row r="12">
@@ -54156,28 +54156,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>61.45974616249435</v>
+        <v>61.45974616249436</v>
       </c>
       <c r="C12" t="n">
         <v>56.41679206533676</v>
       </c>
       <c r="D12" t="n">
-        <v>81.26588945388782</v>
+        <v>81.26588945388778</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05393058903792722</v>
+        <v>0.05365814077317911</v>
       </c>
       <c r="G12" t="n">
-        <v>1.889958563892015</v>
+        <v>1.574151234917189</v>
       </c>
       <c r="H12" t="n">
-        <v>2.544614584217505</v>
+        <v>2.543699718816314</v>
       </c>
       <c r="I12" t="n">
-        <v>29.27172085880603</v>
+        <v>29.24832338583993</v>
       </c>
     </row>
     <row r="13">
@@ -54185,28 +54185,28 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>68.23500561583405</v>
+        <v>68.23500561583404</v>
       </c>
       <c r="C13" t="n">
         <v>51.80139359428275</v>
       </c>
       <c r="D13" t="n">
-        <v>74.15050183633679</v>
+        <v>74.15050183633677</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0393187702098872</v>
+        <v>0.0393619330353291</v>
       </c>
       <c r="G13" t="n">
-        <v>1.981490517971721</v>
+        <v>1.603070573440589</v>
       </c>
       <c r="H13" t="n">
-        <v>2.773390871394359</v>
+        <v>2.773952348794278</v>
       </c>
       <c r="I13" t="n">
-        <v>23.00980887755407</v>
+        <v>23.02432620444409</v>
       </c>
     </row>
     <row r="14">
@@ -54220,22 +54220,22 @@
         <v>54.12262304501159</v>
       </c>
       <c r="D14" t="n">
-        <v>61.92788802242952</v>
+        <v>61.92788802242954</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02854828199234476</v>
+        <v>-0.02847693924815418</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3690221705742838</v>
+        <v>-0.4108676657593158</v>
       </c>
       <c r="H14" t="n">
-        <v>1.18697418103505</v>
+        <v>1.188030431188548</v>
       </c>
       <c r="I14" t="n">
-        <v>23.5806309619984</v>
+        <v>23.61148392026881</v>
       </c>
     </row>
     <row r="15">
@@ -54243,28 +54243,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>61.65092670916686</v>
+        <v>61.65092670916683</v>
       </c>
       <c r="C15" t="n">
-        <v>38.59584129643998</v>
+        <v>38.59584129643997</v>
       </c>
       <c r="D15" t="n">
-        <v>74.40328902382444</v>
+        <v>74.4032890238244</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08924549642795276</v>
+        <v>0.08932728272386471</v>
       </c>
       <c r="G15" t="n">
-        <v>2.003180881726123</v>
+        <v>1.863641857379269</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88765528331621</v>
+        <v>2.888159212208203</v>
       </c>
       <c r="I15" t="n">
-        <v>27.7885680138713</v>
+        <v>27.80106786984989</v>
       </c>
     </row>
     <row r="16">
@@ -54284,16 +54284,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1679977369086196</v>
+        <v>0.1680239692640263</v>
       </c>
       <c r="G16" t="n">
-        <v>2.745657382731754</v>
+        <v>2.301342658053828</v>
       </c>
       <c r="H16" t="n">
-        <v>3.413732772895498</v>
+        <v>3.414252932501623</v>
       </c>
       <c r="I16" t="n">
-        <v>42.06781134113283</v>
+        <v>42.08211699962284</v>
       </c>
     </row>
     <row r="17">
@@ -54301,28 +54301,28 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>65.11148642647471</v>
+        <v>65.11148642647473</v>
       </c>
       <c r="C17" t="n">
-        <v>34.49661986906136</v>
+        <v>34.49661986906134</v>
       </c>
       <c r="D17" t="n">
-        <v>59.01142350412314</v>
+        <v>59.01142350412315</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1379500251440283</v>
+        <v>0.1375211723077404</v>
       </c>
       <c r="G17" t="n">
-        <v>2.392557705169018</v>
+        <v>1.971575700342817</v>
       </c>
       <c r="H17" t="n">
-        <v>2.963339901266954</v>
+        <v>2.961793690939309</v>
       </c>
       <c r="I17" t="n">
-        <v>31.57102127452121</v>
+        <v>31.5344866478204</v>
       </c>
     </row>
     <row r="18">
@@ -54336,22 +54336,22 @@
         <v>39.2922558472664</v>
       </c>
       <c r="D18" t="n">
-        <v>63.65812720102161</v>
+        <v>63.65812720102162</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1781047462629735</v>
+        <v>0.1782221105454767</v>
       </c>
       <c r="G18" t="n">
-        <v>1.71505860165398</v>
+        <v>1.627983695280431</v>
       </c>
       <c r="H18" t="n">
-        <v>2.727060930721411</v>
+        <v>2.727769083660591</v>
       </c>
       <c r="I18" t="n">
-        <v>45.96271916717972</v>
+        <v>45.97750659415778</v>
       </c>
     </row>
     <row r="19">
@@ -54359,28 +54359,28 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>60.14838376012511</v>
+        <v>60.14838376012512</v>
       </c>
       <c r="C19" t="n">
         <v>47.93162037711335</v>
       </c>
       <c r="D19" t="n">
-        <v>60.64128000174536</v>
+        <v>60.64128000174534</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07162592527746131</v>
+        <v>0.07158754212389656</v>
       </c>
       <c r="G19" t="n">
-        <v>1.594413132355055</v>
+        <v>1.389336673823253</v>
       </c>
       <c r="H19" t="n">
-        <v>2.660690537917458</v>
+        <v>2.660697723566428</v>
       </c>
       <c r="I19" t="n">
-        <v>23.84888731905561</v>
+        <v>23.84837690425218</v>
       </c>
     </row>
     <row r="20">
@@ -54388,28 +54388,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>66.1370449309633</v>
+        <v>66.13704493096326</v>
       </c>
       <c r="C20" t="n">
-        <v>37.04709861965348</v>
+        <v>37.04709861965346</v>
       </c>
       <c r="D20" t="n">
-        <v>70.89232336132214</v>
+        <v>70.89232336132208</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02468272201260407</v>
+        <v>-0.02475512959712342</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6671990427119326</v>
+        <v>0.4087980598730733</v>
       </c>
       <c r="H20" t="n">
-        <v>1.771165625427654</v>
+        <v>1.771143475683639</v>
       </c>
       <c r="I20" t="n">
-        <v>24.78546972129519</v>
+        <v>24.78314588151146</v>
       </c>
     </row>
     <row r="21">
@@ -54417,28 +54417,28 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>70.62697495953947</v>
+        <v>70.62697495953948</v>
       </c>
       <c r="C21" t="n">
         <v>34.26732575820384</v>
       </c>
       <c r="D21" t="n">
-        <v>60.68237753179731</v>
+        <v>60.68237753179733</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.02492840906885984</v>
+        <v>-0.02493826224823857</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2045717102853938</v>
+        <v>-0.5220382916689178</v>
       </c>
       <c r="H21" t="n">
-        <v>1.367509009160955</v>
+        <v>1.367792864237099</v>
       </c>
       <c r="I21" t="n">
-        <v>24.13623087433687</v>
+        <v>24.137420471463</v>
       </c>
     </row>
     <row r="22">
@@ -54446,7 +54446,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>69.01771854349046</v>
+        <v>69.01771854349047</v>
       </c>
       <c r="C22" t="n">
         <v>43.16750335422567</v>
@@ -54458,16 +54458,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04561032036009277</v>
+        <v>0.04551235449339301</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9324008387530602</v>
+        <v>0.8493257172521668</v>
       </c>
       <c r="H22" t="n">
-        <v>2.437377916320039</v>
+        <v>2.436941447305815</v>
       </c>
       <c r="I22" t="n">
-        <v>26.30102919653209</v>
+        <v>26.29038491216534</v>
       </c>
     </row>
     <row r="23">
@@ -54475,10 +54475,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>66.95099911652083</v>
+        <v>66.95099911652082</v>
       </c>
       <c r="C23" t="n">
-        <v>48.64073316379669</v>
+        <v>48.6407331637967</v>
       </c>
       <c r="D23" t="n">
         <v>75.96654206248672</v>
@@ -54487,16 +54487,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01955183647752416</v>
+        <v>0.01980265426176761</v>
       </c>
       <c r="G23" t="n">
-        <v>0.886274307255709</v>
+        <v>0.7619876365275566</v>
       </c>
       <c r="H23" t="n">
-        <v>2.387060685726976</v>
+        <v>2.388290854194527</v>
       </c>
       <c r="I23" t="n">
-        <v>30.65478776276922</v>
+        <v>30.68727500286541</v>
       </c>
     </row>
   </sheetData>
